--- a/AAII_Financials/Quarterly/ABCM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABCM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>ABCM</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,157 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>196300</v>
+        <v>195800</v>
       </c>
       <c r="E8" s="3">
-        <v>162100</v>
+        <v>192300</v>
       </c>
       <c r="F8" s="3">
-        <v>184000</v>
+        <v>158800</v>
       </c>
       <c r="G8" s="3">
-        <v>180000</v>
+        <v>180200</v>
       </c>
       <c r="H8" s="3">
-        <v>166000</v>
+        <v>176200</v>
       </c>
       <c r="I8" s="3">
-        <v>160700</v>
+        <v>162600</v>
       </c>
       <c r="J8" s="3">
+        <v>157300</v>
+      </c>
+      <c r="K8" s="3">
         <v>149700</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>57100</v>
+        <v>56100</v>
       </c>
       <c r="E9" s="3">
-        <v>50400</v>
+        <v>55900</v>
       </c>
       <c r="F9" s="3">
-        <v>55800</v>
+        <v>49400</v>
       </c>
       <c r="G9" s="3">
-        <v>52700</v>
+        <v>54600</v>
       </c>
       <c r="H9" s="3">
-        <v>49400</v>
+        <v>51600</v>
       </c>
       <c r="I9" s="3">
-        <v>48200</v>
+        <v>48400</v>
       </c>
       <c r="J9" s="3">
+        <v>47200</v>
+      </c>
+      <c r="K9" s="3">
         <v>45300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>139200</v>
+        <v>139700</v>
       </c>
       <c r="E10" s="3">
-        <v>111700</v>
+        <v>136400</v>
       </c>
       <c r="F10" s="3">
-        <v>128200</v>
+        <v>109400</v>
       </c>
       <c r="G10" s="3">
-        <v>127300</v>
+        <v>125500</v>
       </c>
       <c r="H10" s="3">
-        <v>116600</v>
+        <v>124600</v>
       </c>
       <c r="I10" s="3">
-        <v>112500</v>
+        <v>114200</v>
       </c>
       <c r="J10" s="3">
+        <v>110200</v>
+      </c>
+      <c r="K10" s="3">
         <v>104500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,37 +827,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>14000</v>
+        <v>10600</v>
       </c>
       <c r="E12" s="3">
-        <v>14100</v>
+        <v>13700</v>
       </c>
       <c r="F12" s="3">
-        <v>9100</v>
+        <v>13800</v>
       </c>
       <c r="G12" s="3">
-        <v>6400</v>
+        <v>8900</v>
       </c>
       <c r="H12" s="3">
-        <v>7900</v>
+        <v>6300</v>
       </c>
       <c r="I12" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="J12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K12" s="3">
         <v>13700</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,28 +889,31 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4900</v>
+        <v>6800</v>
       </c>
       <c r="E14" s="3">
-        <v>29300</v>
+        <v>4800</v>
       </c>
       <c r="F14" s="3">
-        <v>4500</v>
+        <v>28700</v>
       </c>
       <c r="G14" s="3">
-        <v>22500</v>
+        <v>4400</v>
       </c>
       <c r="H14" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+        <v>22000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5300</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -901,37 +921,43 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="E15" s="3">
-        <v>6900</v>
+        <v>5700</v>
       </c>
       <c r="F15" s="3">
-        <v>4500</v>
+        <v>6800</v>
       </c>
       <c r="G15" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I15" s="3">
         <v>4300</v>
       </c>
-      <c r="H15" s="3">
-        <v>4400</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +966,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>175700</v>
+        <v>182400</v>
       </c>
       <c r="E17" s="3">
-        <v>183600</v>
+        <v>172100</v>
       </c>
       <c r="F17" s="3">
-        <v>148600</v>
+        <v>179800</v>
       </c>
       <c r="G17" s="3">
-        <v>149700</v>
+        <v>145500</v>
       </c>
       <c r="H17" s="3">
-        <v>121500</v>
+        <v>146700</v>
       </c>
       <c r="I17" s="3">
-        <v>112600</v>
+        <v>119000</v>
       </c>
       <c r="J17" s="3">
+        <v>110300</v>
+      </c>
+      <c r="K17" s="3">
         <v>106200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>20600</v>
+        <v>13400</v>
       </c>
       <c r="E18" s="3">
-        <v>-21400</v>
+        <v>20200</v>
       </c>
       <c r="F18" s="3">
-        <v>35400</v>
+        <v>-21000</v>
       </c>
       <c r="G18" s="3">
-        <v>30200</v>
+        <v>34700</v>
       </c>
       <c r="H18" s="3">
-        <v>44500</v>
+        <v>29600</v>
       </c>
       <c r="I18" s="3">
-        <v>48100</v>
+        <v>43500</v>
       </c>
       <c r="J18" s="3">
+        <v>47100</v>
+      </c>
+      <c r="K18" s="3">
         <v>43500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,8 +1044,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1020,71 +1054,77 @@
         <v>300</v>
       </c>
       <c r="E20" s="3">
-        <v>-1500</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>42200</v>
+        <v>39000</v>
       </c>
       <c r="E21" s="3">
+        <v>41300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
-        <v>53600</v>
-      </c>
       <c r="G21" s="3">
-        <v>41500</v>
+        <v>52500</v>
       </c>
       <c r="H21" s="3">
-        <v>54000</v>
+        <v>40700</v>
       </c>
       <c r="I21" s="3">
-        <v>57100</v>
+        <v>52900</v>
       </c>
       <c r="J21" s="3">
+        <v>55900</v>
+      </c>
+      <c r="K21" s="3">
         <v>52000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3">
         <v>2500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>1400</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1098,66 +1138,75 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>18400</v>
+        <v>12000</v>
       </c>
       <c r="E23" s="3">
-        <v>-23400</v>
+        <v>18000</v>
       </c>
       <c r="F23" s="3">
-        <v>34600</v>
+        <v>-22900</v>
       </c>
       <c r="G23" s="3">
-        <v>30200</v>
+        <v>33900</v>
       </c>
       <c r="H23" s="3">
-        <v>44900</v>
+        <v>29600</v>
       </c>
       <c r="I23" s="3">
-        <v>48300</v>
+        <v>43900</v>
       </c>
       <c r="J23" s="3">
+        <v>47300</v>
+      </c>
+      <c r="K23" s="3">
         <v>43700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2800</v>
+        <v>8200</v>
       </c>
       <c r="E24" s="3">
-        <v>-5300</v>
+        <v>2700</v>
       </c>
       <c r="F24" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>6900</v>
-      </c>
       <c r="H24" s="3">
-        <v>8000</v>
+        <v>6800</v>
       </c>
       <c r="I24" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="J24" s="3">
         <v>8000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1234,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>15600</v>
+        <v>3800</v>
       </c>
       <c r="E26" s="3">
-        <v>-18100</v>
+        <v>15300</v>
       </c>
       <c r="F26" s="3">
-        <v>34700</v>
+        <v>-17700</v>
       </c>
       <c r="G26" s="3">
-        <v>23300</v>
+        <v>34000</v>
       </c>
       <c r="H26" s="3">
-        <v>36900</v>
+        <v>22800</v>
       </c>
       <c r="I26" s="3">
-        <v>40200</v>
+        <v>36100</v>
       </c>
       <c r="J26" s="3">
+        <v>39400</v>
+      </c>
+      <c r="K26" s="3">
         <v>35700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>15600</v>
+        <v>3800</v>
       </c>
       <c r="E27" s="3">
-        <v>-18100</v>
+        <v>15300</v>
       </c>
       <c r="F27" s="3">
-        <v>34700</v>
+        <v>-17700</v>
       </c>
       <c r="G27" s="3">
-        <v>23300</v>
+        <v>34000</v>
       </c>
       <c r="H27" s="3">
-        <v>36900</v>
+        <v>22800</v>
       </c>
       <c r="I27" s="3">
-        <v>40200</v>
+        <v>36100</v>
       </c>
       <c r="J27" s="3">
+        <v>39400</v>
+      </c>
+      <c r="K27" s="3">
         <v>35700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,37 +1330,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
         <v>-300</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>7300</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1394,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,8 +1426,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1368,57 +1438,63 @@
         <v>-300</v>
       </c>
       <c r="E32" s="3">
-        <v>1500</v>
+        <v>-300</v>
       </c>
       <c r="F32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>15600</v>
+        <v>3800</v>
       </c>
       <c r="E33" s="3">
-        <v>-18100</v>
+        <v>15300</v>
       </c>
       <c r="F33" s="3">
-        <v>34700</v>
+        <v>-17700</v>
       </c>
       <c r="G33" s="3">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="H33" s="3">
-        <v>36900</v>
+        <v>22600</v>
       </c>
       <c r="I33" s="3">
-        <v>39800</v>
+        <v>36100</v>
       </c>
       <c r="J33" s="3">
+        <v>39000</v>
+      </c>
+      <c r="K33" s="3">
         <v>43000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1522,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>15600</v>
+        <v>3800</v>
       </c>
       <c r="E35" s="3">
-        <v>-18100</v>
+        <v>15300</v>
       </c>
       <c r="F35" s="3">
-        <v>34700</v>
+        <v>-17700</v>
       </c>
       <c r="G35" s="3">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="H35" s="3">
-        <v>36900</v>
+        <v>22600</v>
       </c>
       <c r="I35" s="3">
-        <v>39800</v>
+        <v>36100</v>
       </c>
       <c r="J35" s="3">
+        <v>39000</v>
+      </c>
+      <c r="K35" s="3">
         <v>43000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1607,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,37 +1621,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>282100</v>
+        <v>286700</v>
       </c>
       <c r="E41" s="3">
-        <v>249300</v>
+        <v>276200</v>
       </c>
       <c r="F41" s="3">
-        <v>252800</v>
+        <v>244200</v>
       </c>
       <c r="G41" s="3">
-        <v>115900</v>
+        <v>247600</v>
       </c>
       <c r="H41" s="3">
-        <v>110700</v>
+        <v>113500</v>
       </c>
       <c r="I41" s="3">
-        <v>120100</v>
+        <v>108500</v>
       </c>
       <c r="J41" s="3">
+        <v>117600</v>
+      </c>
+      <c r="K41" s="3">
         <v>121900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1581,223 +1671,247 @@
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
         <v>1500</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>69100</v>
+        <v>69500</v>
       </c>
       <c r="E43" s="3">
-        <v>67600</v>
+        <v>67700</v>
       </c>
       <c r="F43" s="3">
-        <v>61100</v>
+        <v>66200</v>
       </c>
       <c r="G43" s="3">
-        <v>64600</v>
+        <v>59800</v>
       </c>
       <c r="H43" s="3">
-        <v>40900</v>
+        <v>63200</v>
       </c>
       <c r="I43" s="3">
-        <v>52300</v>
+        <v>40000</v>
       </c>
       <c r="J43" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K43" s="3">
         <v>40200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>57800</v>
+        <v>59800</v>
       </c>
       <c r="E44" s="3">
-        <v>54200</v>
+        <v>56600</v>
       </c>
       <c r="F44" s="3">
-        <v>52600</v>
+        <v>53100</v>
       </c>
       <c r="G44" s="3">
-        <v>47900</v>
+        <v>51500</v>
       </c>
       <c r="H44" s="3">
-        <v>42700</v>
+        <v>46900</v>
       </c>
       <c r="I44" s="3">
-        <v>39400</v>
+        <v>41800</v>
       </c>
       <c r="J44" s="3">
+        <v>38600</v>
+      </c>
+      <c r="K44" s="3">
         <v>29800</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>1100</v>
-      </c>
       <c r="J45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>409300</v>
+        <v>416800</v>
       </c>
       <c r="E46" s="3">
-        <v>371100</v>
+        <v>400900</v>
       </c>
       <c r="F46" s="3">
-        <v>369200</v>
+        <v>363400</v>
       </c>
       <c r="G46" s="3">
-        <v>228700</v>
+        <v>361600</v>
       </c>
       <c r="H46" s="3">
-        <v>194500</v>
+        <v>224000</v>
       </c>
       <c r="I46" s="3">
-        <v>212800</v>
+        <v>190500</v>
       </c>
       <c r="J46" s="3">
+        <v>208400</v>
+      </c>
+      <c r="K46" s="3">
         <v>196500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="E47" s="3">
-        <v>9300</v>
+        <v>4400</v>
       </c>
       <c r="F47" s="3">
-        <v>4100</v>
+        <v>9100</v>
       </c>
       <c r="G47" s="3">
-        <v>1100</v>
+        <v>4000</v>
       </c>
       <c r="H47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I47" s="3">
         <v>900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>209600</v>
+        <v>208600</v>
       </c>
       <c r="E48" s="3">
-        <v>219200</v>
+        <v>205300</v>
       </c>
       <c r="F48" s="3">
-        <v>144000</v>
+        <v>214700</v>
       </c>
       <c r="G48" s="3">
-        <v>49400</v>
+        <v>141000</v>
       </c>
       <c r="H48" s="3">
-        <v>43500</v>
+        <v>48400</v>
       </c>
       <c r="I48" s="3">
-        <v>33400</v>
+        <v>42600</v>
       </c>
       <c r="J48" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K48" s="3">
         <v>34100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>451000</v>
+        <v>438300</v>
       </c>
       <c r="E49" s="3">
-        <v>462200</v>
+        <v>441700</v>
       </c>
       <c r="F49" s="3">
-        <v>300300</v>
+        <v>452600</v>
       </c>
       <c r="G49" s="3">
-        <v>303000</v>
+        <v>294100</v>
       </c>
       <c r="H49" s="3">
-        <v>307000</v>
+        <v>296700</v>
       </c>
       <c r="I49" s="3">
-        <v>293500</v>
+        <v>300600</v>
       </c>
       <c r="J49" s="3">
+        <v>287400</v>
+      </c>
+      <c r="K49" s="3">
         <v>249000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1939,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,37 +1971,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20800</v>
+        <v>6600</v>
       </c>
       <c r="E52" s="3">
-        <v>18200</v>
+        <v>20300</v>
       </c>
       <c r="F52" s="3">
-        <v>10800</v>
+        <v>17900</v>
       </c>
       <c r="G52" s="3">
-        <v>12500</v>
+        <v>10600</v>
       </c>
       <c r="H52" s="3">
-        <v>10500</v>
+        <v>12300</v>
       </c>
       <c r="I52" s="3">
-        <v>11200</v>
+        <v>10300</v>
       </c>
       <c r="J52" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K52" s="3">
         <v>9600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2035,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1095200</v>
+        <v>1074800</v>
       </c>
       <c r="E54" s="3">
-        <v>1080100</v>
+        <v>1072600</v>
       </c>
       <c r="F54" s="3">
-        <v>828500</v>
+        <v>1057700</v>
       </c>
       <c r="G54" s="3">
-        <v>594600</v>
+        <v>811400</v>
       </c>
       <c r="H54" s="3">
-        <v>556400</v>
+        <v>582300</v>
       </c>
       <c r="I54" s="3">
-        <v>552100</v>
+        <v>544900</v>
       </c>
       <c r="J54" s="3">
+        <v>540700</v>
+      </c>
+      <c r="K54" s="3">
         <v>489200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2083,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,51 +2097,55 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>61900</v>
+        <v>74400</v>
       </c>
       <c r="E57" s="3">
-        <v>58300</v>
+        <v>60600</v>
       </c>
       <c r="F57" s="3">
-        <v>52700</v>
+        <v>57100</v>
       </c>
       <c r="G57" s="3">
-        <v>55600</v>
+        <v>51600</v>
       </c>
       <c r="H57" s="3">
-        <v>44300</v>
+        <v>54500</v>
       </c>
       <c r="I57" s="3">
-        <v>61000</v>
+        <v>43400</v>
       </c>
       <c r="J57" s="3">
+        <v>59700</v>
+      </c>
+      <c r="K57" s="3">
         <v>35100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9500</v>
+        <v>10600</v>
       </c>
       <c r="E58" s="3">
-        <v>151300</v>
+        <v>9300</v>
       </c>
       <c r="F58" s="3">
-        <v>143600</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>148200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>140700</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2025,80 +2159,89 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
-        <v>2800</v>
-      </c>
       <c r="F59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
-        <v>4700</v>
-      </c>
       <c r="H59" s="3">
-        <v>4100</v>
+        <v>4600</v>
       </c>
       <c r="I59" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="J59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K59" s="3">
         <v>6500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>73300</v>
+        <v>87200</v>
       </c>
       <c r="E60" s="3">
-        <v>212400</v>
+        <v>71800</v>
       </c>
       <c r="F60" s="3">
-        <v>197900</v>
+        <v>208100</v>
       </c>
       <c r="G60" s="3">
-        <v>60300</v>
+        <v>193800</v>
       </c>
       <c r="H60" s="3">
-        <v>48500</v>
+        <v>59100</v>
       </c>
       <c r="I60" s="3">
-        <v>65200</v>
+        <v>47500</v>
       </c>
       <c r="J60" s="3">
+        <v>63900</v>
+      </c>
+      <c r="K60" s="3">
         <v>41700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>146300</v>
+        <v>133500</v>
       </c>
       <c r="E61" s="3">
-        <v>160400</v>
+        <v>143300</v>
       </c>
       <c r="F61" s="3">
-        <v>89800</v>
+        <v>157100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>88000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2112,37 +2255,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>36600</v>
+      </c>
+      <c r="F62" s="3">
         <v>37400</v>
       </c>
-      <c r="E62" s="3">
-        <v>38200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>21800</v>
-      </c>
       <c r="G62" s="3">
-        <v>22100</v>
+        <v>21400</v>
       </c>
       <c r="H62" s="3">
-        <v>19000</v>
+        <v>21600</v>
       </c>
       <c r="I62" s="3">
-        <v>18800</v>
+        <v>18600</v>
       </c>
       <c r="J62" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K62" s="3">
         <v>20400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2319,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2351,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2383,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>257000</v>
+        <v>247400</v>
       </c>
       <c r="E66" s="3">
-        <v>411000</v>
+        <v>251700</v>
       </c>
       <c r="F66" s="3">
-        <v>309600</v>
+        <v>402500</v>
       </c>
       <c r="G66" s="3">
-        <v>82400</v>
+        <v>303200</v>
       </c>
       <c r="H66" s="3">
-        <v>67500</v>
+        <v>80700</v>
       </c>
       <c r="I66" s="3">
-        <v>84000</v>
+        <v>66100</v>
       </c>
       <c r="J66" s="3">
+        <v>82300</v>
+      </c>
+      <c r="K66" s="3">
         <v>62000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2431,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2461,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2493,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2525,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2557,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>453800</v>
+        <v>457300</v>
       </c>
       <c r="E72" s="3">
-        <v>431700</v>
+        <v>444400</v>
       </c>
       <c r="F72" s="3">
-        <v>449100</v>
+        <v>422800</v>
       </c>
       <c r="G72" s="3">
-        <v>436900</v>
+        <v>439800</v>
       </c>
       <c r="H72" s="3">
-        <v>417800</v>
+        <v>427800</v>
       </c>
       <c r="I72" s="3">
-        <v>402700</v>
+        <v>409200</v>
       </c>
       <c r="J72" s="3">
+        <v>394300</v>
+      </c>
+      <c r="K72" s="3">
         <v>368600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2621,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2653,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2685,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>838200</v>
+        <v>827400</v>
       </c>
       <c r="E76" s="3">
-        <v>669000</v>
+        <v>820900</v>
       </c>
       <c r="F76" s="3">
-        <v>518900</v>
+        <v>655200</v>
       </c>
       <c r="G76" s="3">
-        <v>512200</v>
+        <v>508100</v>
       </c>
       <c r="H76" s="3">
-        <v>488900</v>
+        <v>501600</v>
       </c>
       <c r="I76" s="3">
-        <v>468100</v>
+        <v>478800</v>
       </c>
       <c r="J76" s="3">
+        <v>458500</v>
+      </c>
+      <c r="K76" s="3">
         <v>427100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2749,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>15600</v>
+        <v>3800</v>
       </c>
       <c r="E81" s="3">
-        <v>-18100</v>
+        <v>15300</v>
       </c>
       <c r="F81" s="3">
-        <v>34700</v>
+        <v>-17700</v>
       </c>
       <c r="G81" s="3">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="H81" s="3">
-        <v>36900</v>
+        <v>22600</v>
       </c>
       <c r="I81" s="3">
-        <v>39800</v>
+        <v>36100</v>
       </c>
       <c r="J81" s="3">
+        <v>39000</v>
+      </c>
+      <c r="K81" s="3">
         <v>43000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,37 +2834,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21300</v>
+        <v>25300</v>
       </c>
       <c r="E83" s="3">
-        <v>22200</v>
+        <v>20900</v>
       </c>
       <c r="F83" s="3">
-        <v>17600</v>
+        <v>21800</v>
       </c>
       <c r="G83" s="3">
-        <v>11300</v>
+        <v>17200</v>
       </c>
       <c r="H83" s="3">
-        <v>9200</v>
+        <v>11100</v>
       </c>
       <c r="I83" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="J83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K83" s="3">
         <v>8400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2896,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2928,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2960,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +2992,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3024,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>45100</v>
+        <v>49500</v>
       </c>
       <c r="E89" s="3">
-        <v>31100</v>
+        <v>44200</v>
       </c>
       <c r="F89" s="3">
-        <v>52700</v>
+        <v>30500</v>
       </c>
       <c r="G89" s="3">
-        <v>45000</v>
+        <v>51600</v>
       </c>
       <c r="H89" s="3">
-        <v>48500</v>
+        <v>44100</v>
       </c>
       <c r="I89" s="3">
-        <v>40500</v>
+        <v>47500</v>
       </c>
       <c r="J89" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K89" s="3">
         <v>43800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3072,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15300</v>
+        <v>-26100</v>
       </c>
       <c r="E91" s="3">
-        <v>-6400</v>
+        <v>-15000</v>
       </c>
       <c r="F91" s="3">
-        <v>-10500</v>
+        <v>-6300</v>
       </c>
       <c r="G91" s="3">
-        <v>-10500</v>
+        <v>-10300</v>
       </c>
       <c r="H91" s="3">
-        <v>-13000</v>
+        <v>-10300</v>
       </c>
       <c r="I91" s="3">
-        <v>-14800</v>
+        <v>-12800</v>
       </c>
       <c r="J91" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3134,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3166,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-30300</v>
+        <v>-30000</v>
       </c>
       <c r="E94" s="3">
-        <v>-172100</v>
+        <v>-29700</v>
       </c>
       <c r="F94" s="3">
-        <v>-25000</v>
+        <v>-168600</v>
       </c>
       <c r="G94" s="3">
-        <v>-30500</v>
+        <v>-24500</v>
       </c>
       <c r="H94" s="3">
-        <v>-35900</v>
+        <v>-29900</v>
       </c>
       <c r="I94" s="3">
-        <v>-35400</v>
+        <v>-35200</v>
       </c>
       <c r="J94" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-14800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3214,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2990,28 +3224,31 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-9700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-23600</v>
+        <v>-9500</v>
       </c>
       <c r="G96" s="3">
-        <v>-9700</v>
+        <v>-23100</v>
       </c>
       <c r="H96" s="3">
-        <v>-23400</v>
+        <v>-9500</v>
       </c>
       <c r="I96" s="3">
-        <v>-9300</v>
+        <v>-22900</v>
       </c>
       <c r="J96" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-20100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3276,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3308,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,91 +3340,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>20000</v>
+        <v>-8000</v>
       </c>
       <c r="E100" s="3">
-        <v>134400</v>
+        <v>19600</v>
       </c>
       <c r="F100" s="3">
-        <v>111300</v>
+        <v>131700</v>
       </c>
       <c r="G100" s="3">
-        <v>-10000</v>
+        <v>109000</v>
       </c>
       <c r="H100" s="3">
-        <v>-22900</v>
+        <v>-9800</v>
       </c>
       <c r="I100" s="3">
-        <v>-8400</v>
+        <v>-22400</v>
       </c>
       <c r="J100" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-19000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
-        <v>3100</v>
-      </c>
       <c r="F101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G101" s="3">
         <v>-2100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
-        <v>1100</v>
-      </c>
       <c r="I101" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="J101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>32700</v>
+        <v>10400</v>
       </c>
       <c r="E102" s="3">
-        <v>-3500</v>
+        <v>32100</v>
       </c>
       <c r="F102" s="3">
-        <v>136800</v>
+        <v>-3400</v>
       </c>
       <c r="G102" s="3">
-        <v>5200</v>
+        <v>134000</v>
       </c>
       <c r="H102" s="3">
-        <v>-9300</v>
+        <v>5100</v>
       </c>
       <c r="I102" s="3">
-        <v>-1900</v>
+        <v>-9100</v>
       </c>
       <c r="J102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K102" s="3">
         <v>9100</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABCM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABCM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>ABCM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,170 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>195800</v>
+        <v>201500</v>
       </c>
       <c r="E8" s="3">
-        <v>192300</v>
+        <v>183200</v>
       </c>
       <c r="F8" s="3">
-        <v>158800</v>
+        <v>179900</v>
       </c>
       <c r="G8" s="3">
-        <v>180200</v>
+        <v>148600</v>
       </c>
       <c r="H8" s="3">
-        <v>176200</v>
+        <v>168600</v>
       </c>
       <c r="I8" s="3">
-        <v>162600</v>
+        <v>164900</v>
       </c>
       <c r="J8" s="3">
+        <v>152100</v>
+      </c>
+      <c r="K8" s="3">
         <v>157300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>149700</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>56100</v>
+        <v>58300</v>
       </c>
       <c r="E9" s="3">
-        <v>55900</v>
+        <v>52500</v>
       </c>
       <c r="F9" s="3">
-        <v>49400</v>
+        <v>52300</v>
       </c>
       <c r="G9" s="3">
-        <v>54600</v>
+        <v>46200</v>
       </c>
       <c r="H9" s="3">
-        <v>51600</v>
+        <v>51100</v>
       </c>
       <c r="I9" s="3">
-        <v>48400</v>
+        <v>48300</v>
       </c>
       <c r="J9" s="3">
+        <v>45300</v>
+      </c>
+      <c r="K9" s="3">
         <v>47200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>45300</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>139700</v>
+        <v>143200</v>
       </c>
       <c r="E10" s="3">
-        <v>136400</v>
+        <v>130800</v>
       </c>
       <c r="F10" s="3">
-        <v>109400</v>
+        <v>127600</v>
       </c>
       <c r="G10" s="3">
-        <v>125500</v>
+        <v>102300</v>
       </c>
       <c r="H10" s="3">
-        <v>124600</v>
+        <v>117500</v>
       </c>
       <c r="I10" s="3">
-        <v>114200</v>
+        <v>116600</v>
       </c>
       <c r="J10" s="3">
+        <v>106900</v>
+      </c>
+      <c r="K10" s="3">
         <v>110200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>104500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,40 +841,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10600</v>
+        <v>14400</v>
       </c>
       <c r="E12" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F12" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>12900</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="L12" s="3">
         <v>13700</v>
       </c>
-      <c r="F12" s="3">
-        <v>13800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>6300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>7700</v>
-      </c>
-      <c r="J12" s="3">
-        <v>7400</v>
-      </c>
-      <c r="K12" s="3">
-        <v>13700</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,31 +909,34 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6800</v>
+        <v>20000</v>
       </c>
       <c r="E14" s="3">
-        <v>4800</v>
+        <v>6300</v>
       </c>
       <c r="F14" s="3">
-        <v>28700</v>
+        <v>4500</v>
       </c>
       <c r="G14" s="3">
-        <v>4400</v>
+        <v>26800</v>
       </c>
       <c r="H14" s="3">
-        <v>22000</v>
+        <v>4100</v>
       </c>
       <c r="I14" s="3">
-        <v>5300</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>20600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5000</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -924,31 +944,34 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5600</v>
+        <v>6200</v>
       </c>
       <c r="E15" s="3">
-        <v>5700</v>
+        <v>5200</v>
       </c>
       <c r="F15" s="3">
-        <v>6800</v>
+        <v>5400</v>
       </c>
       <c r="G15" s="3">
-        <v>4400</v>
+        <v>6300</v>
       </c>
       <c r="H15" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I15" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+        <v>3900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4000</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -956,8 +979,11 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -967,72 +993,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>182400</v>
+        <v>206200</v>
       </c>
       <c r="E17" s="3">
-        <v>172100</v>
+        <v>170700</v>
       </c>
       <c r="F17" s="3">
-        <v>179800</v>
+        <v>161000</v>
       </c>
       <c r="G17" s="3">
-        <v>145500</v>
+        <v>168200</v>
       </c>
       <c r="H17" s="3">
-        <v>146700</v>
+        <v>136100</v>
       </c>
       <c r="I17" s="3">
-        <v>119000</v>
+        <v>137200</v>
       </c>
       <c r="J17" s="3">
+        <v>111400</v>
+      </c>
+      <c r="K17" s="3">
         <v>110300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>106200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13400</v>
+        <v>-4600</v>
       </c>
       <c r="E18" s="3">
-        <v>20200</v>
+        <v>12600</v>
       </c>
       <c r="F18" s="3">
-        <v>-21000</v>
+        <v>18900</v>
       </c>
       <c r="G18" s="3">
-        <v>34700</v>
+        <v>-19600</v>
       </c>
       <c r="H18" s="3">
-        <v>29600</v>
+        <v>32400</v>
       </c>
       <c r="I18" s="3">
+        <v>27700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>47100</v>
+      </c>
+      <c r="L18" s="3">
         <v>43500</v>
       </c>
-      <c r="J18" s="3">
-        <v>47100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>43500</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1045,89 +1078,96 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>400</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>300</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>39000</v>
+        <v>20100</v>
       </c>
       <c r="E21" s="3">
-        <v>41300</v>
+        <v>36500</v>
       </c>
       <c r="F21" s="3">
-        <v>-700</v>
+        <v>38700</v>
       </c>
       <c r="G21" s="3">
-        <v>52500</v>
+        <v>-600</v>
       </c>
       <c r="H21" s="3">
-        <v>40700</v>
+        <v>49200</v>
       </c>
       <c r="I21" s="3">
-        <v>52900</v>
+        <v>38100</v>
       </c>
       <c r="J21" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K21" s="3">
         <v>55900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>52000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>1700</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="F22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>1300</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1141,72 +1181,81 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12000</v>
+        <v>-6200</v>
       </c>
       <c r="E23" s="3">
-        <v>18000</v>
+        <v>11200</v>
       </c>
       <c r="F23" s="3">
-        <v>-22900</v>
+        <v>16800</v>
       </c>
       <c r="G23" s="3">
-        <v>33900</v>
+        <v>-21500</v>
       </c>
       <c r="H23" s="3">
-        <v>29600</v>
+        <v>31700</v>
       </c>
       <c r="I23" s="3">
-        <v>43900</v>
+        <v>27700</v>
       </c>
       <c r="J23" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K23" s="3">
         <v>47300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>43700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8200</v>
+        <v>-7400</v>
       </c>
       <c r="E24" s="3">
-        <v>2700</v>
+        <v>7700</v>
       </c>
       <c r="F24" s="3">
-        <v>-5200</v>
+        <v>2600</v>
       </c>
       <c r="G24" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>6800</v>
-      </c>
       <c r="I24" s="3">
-        <v>7800</v>
+        <v>6300</v>
       </c>
       <c r="J24" s="3">
-        <v>8000</v>
+        <v>7300</v>
       </c>
       <c r="K24" s="3">
         <v>8000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1237,72 +1286,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="E26" s="3">
-        <v>15300</v>
+        <v>3500</v>
       </c>
       <c r="F26" s="3">
-        <v>-17700</v>
+        <v>14300</v>
       </c>
       <c r="G26" s="3">
-        <v>34000</v>
+        <v>-16600</v>
       </c>
       <c r="H26" s="3">
-        <v>22800</v>
+        <v>31800</v>
       </c>
       <c r="I26" s="3">
-        <v>36100</v>
+        <v>21300</v>
       </c>
       <c r="J26" s="3">
+        <v>33800</v>
+      </c>
+      <c r="K26" s="3">
         <v>39400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>35700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="E27" s="3">
-        <v>15300</v>
+        <v>3500</v>
       </c>
       <c r="F27" s="3">
-        <v>-17700</v>
+        <v>14300</v>
       </c>
       <c r="G27" s="3">
-        <v>34000</v>
+        <v>-16600</v>
       </c>
       <c r="H27" s="3">
-        <v>22800</v>
+        <v>31800</v>
       </c>
       <c r="I27" s="3">
-        <v>36100</v>
+        <v>21300</v>
       </c>
       <c r="J27" s="3">
+        <v>33800</v>
+      </c>
+      <c r="K27" s="3">
         <v>39400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1333,8 +1391,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1344,29 +1405,32 @@
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-300</v>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>7300</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1397,8 +1461,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1429,72 +1496,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="E33" s="3">
-        <v>15300</v>
+        <v>3500</v>
       </c>
       <c r="F33" s="3">
-        <v>-17700</v>
+        <v>14300</v>
       </c>
       <c r="G33" s="3">
-        <v>34000</v>
+        <v>-16600</v>
       </c>
       <c r="H33" s="3">
-        <v>22600</v>
+        <v>31800</v>
       </c>
       <c r="I33" s="3">
-        <v>36100</v>
+        <v>21100</v>
       </c>
       <c r="J33" s="3">
+        <v>33800</v>
+      </c>
+      <c r="K33" s="3">
         <v>39000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>43000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1525,77 +1601,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="E35" s="3">
-        <v>15300</v>
+        <v>3500</v>
       </c>
       <c r="F35" s="3">
-        <v>-17700</v>
+        <v>14300</v>
       </c>
       <c r="G35" s="3">
-        <v>34000</v>
+        <v>-16600</v>
       </c>
       <c r="H35" s="3">
-        <v>22600</v>
+        <v>31800</v>
       </c>
       <c r="I35" s="3">
-        <v>36100</v>
+        <v>21100</v>
       </c>
       <c r="J35" s="3">
+        <v>33800</v>
+      </c>
+      <c r="K35" s="3">
         <v>39000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>43000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1608,8 +1693,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1622,296 +1708,324 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>286700</v>
+        <v>116000</v>
       </c>
       <c r="E41" s="3">
-        <v>276200</v>
+        <v>268300</v>
       </c>
       <c r="F41" s="3">
-        <v>244200</v>
+        <v>258500</v>
       </c>
       <c r="G41" s="3">
-        <v>247600</v>
+        <v>228500</v>
       </c>
       <c r="H41" s="3">
-        <v>113500</v>
+        <v>231700</v>
       </c>
       <c r="I41" s="3">
-        <v>108500</v>
+        <v>106300</v>
       </c>
       <c r="J41" s="3">
+        <v>101500</v>
+      </c>
+      <c r="K41" s="3">
         <v>117600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>121900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3">
         <v>1500</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>69500</v>
+        <v>70400</v>
       </c>
       <c r="E43" s="3">
-        <v>67700</v>
+        <v>65000</v>
       </c>
       <c r="F43" s="3">
-        <v>66200</v>
+        <v>63300</v>
       </c>
       <c r="G43" s="3">
-        <v>59800</v>
+        <v>62000</v>
       </c>
       <c r="H43" s="3">
-        <v>63200</v>
+        <v>56000</v>
       </c>
       <c r="I43" s="3">
-        <v>40000</v>
+        <v>59200</v>
       </c>
       <c r="J43" s="3">
+        <v>37500</v>
+      </c>
+      <c r="K43" s="3">
         <v>51200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>40200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>59800</v>
+        <v>71000</v>
       </c>
       <c r="E44" s="3">
-        <v>56600</v>
+        <v>56000</v>
       </c>
       <c r="F44" s="3">
-        <v>53100</v>
+        <v>52900</v>
       </c>
       <c r="G44" s="3">
-        <v>51500</v>
+        <v>49600</v>
       </c>
       <c r="H44" s="3">
-        <v>46900</v>
+        <v>48200</v>
       </c>
       <c r="I44" s="3">
-        <v>41800</v>
+        <v>43900</v>
       </c>
       <c r="J44" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K44" s="3">
         <v>38600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>29800</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
+        <v>700</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>2600</v>
       </c>
       <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>416800</v>
+        <v>258000</v>
       </c>
       <c r="E46" s="3">
-        <v>400900</v>
+        <v>390000</v>
       </c>
       <c r="F46" s="3">
-        <v>363400</v>
+        <v>375100</v>
       </c>
       <c r="G46" s="3">
-        <v>361600</v>
+        <v>340100</v>
       </c>
       <c r="H46" s="3">
-        <v>224000</v>
+        <v>338400</v>
       </c>
       <c r="I46" s="3">
-        <v>190500</v>
+        <v>209600</v>
       </c>
       <c r="J46" s="3">
+        <v>178200</v>
+      </c>
+      <c r="K46" s="3">
         <v>208400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>196500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="E47" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="F47" s="3">
-        <v>9100</v>
+        <v>4100</v>
       </c>
       <c r="G47" s="3">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="H47" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I47" s="3">
         <v>1000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>208600</v>
+        <v>197300</v>
       </c>
       <c r="E48" s="3">
-        <v>205300</v>
+        <v>195200</v>
       </c>
       <c r="F48" s="3">
-        <v>214700</v>
+        <v>192100</v>
       </c>
       <c r="G48" s="3">
-        <v>141000</v>
+        <v>200900</v>
       </c>
       <c r="H48" s="3">
-        <v>48400</v>
+        <v>132000</v>
       </c>
       <c r="I48" s="3">
-        <v>42600</v>
+        <v>45300</v>
       </c>
       <c r="J48" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K48" s="3">
         <v>32700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>438300</v>
+        <v>730700</v>
       </c>
       <c r="E49" s="3">
-        <v>441700</v>
+        <v>410100</v>
       </c>
       <c r="F49" s="3">
-        <v>452600</v>
+        <v>413300</v>
       </c>
       <c r="G49" s="3">
-        <v>294100</v>
+        <v>423500</v>
       </c>
       <c r="H49" s="3">
-        <v>296700</v>
+        <v>275200</v>
       </c>
       <c r="I49" s="3">
-        <v>300600</v>
+        <v>277600</v>
       </c>
       <c r="J49" s="3">
+        <v>281300</v>
+      </c>
+      <c r="K49" s="3">
         <v>287400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>249000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1942,8 +2056,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1974,40 +2091,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6600</v>
+        <v>12700</v>
       </c>
       <c r="E52" s="3">
-        <v>20300</v>
+        <v>6200</v>
       </c>
       <c r="F52" s="3">
-        <v>17900</v>
+        <v>19000</v>
       </c>
       <c r="G52" s="3">
-        <v>10600</v>
+        <v>16700</v>
       </c>
       <c r="H52" s="3">
-        <v>12300</v>
+        <v>9900</v>
       </c>
       <c r="I52" s="3">
-        <v>10300</v>
+        <v>11500</v>
       </c>
       <c r="J52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K52" s="3">
         <v>11000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2038,40 +2161,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1074800</v>
+        <v>1202900</v>
       </c>
       <c r="E54" s="3">
-        <v>1072600</v>
+        <v>1005800</v>
       </c>
       <c r="F54" s="3">
-        <v>1057700</v>
+        <v>1003700</v>
       </c>
       <c r="G54" s="3">
-        <v>811400</v>
+        <v>989800</v>
       </c>
       <c r="H54" s="3">
-        <v>582300</v>
+        <v>759300</v>
       </c>
       <c r="I54" s="3">
         <v>544900</v>
       </c>
       <c r="J54" s="3">
+        <v>509900</v>
+      </c>
+      <c r="K54" s="3">
         <v>540700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>489200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2084,8 +2213,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2098,57 +2228,61 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>74400</v>
+        <v>66100</v>
       </c>
       <c r="E57" s="3">
-        <v>60600</v>
+        <v>69700</v>
       </c>
       <c r="F57" s="3">
-        <v>57100</v>
+        <v>56700</v>
       </c>
       <c r="G57" s="3">
-        <v>51600</v>
+        <v>53400</v>
       </c>
       <c r="H57" s="3">
-        <v>54500</v>
+        <v>48300</v>
       </c>
       <c r="I57" s="3">
-        <v>43400</v>
+        <v>51000</v>
       </c>
       <c r="J57" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K57" s="3">
         <v>59700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10600</v>
+        <v>156600</v>
       </c>
       <c r="E58" s="3">
-        <v>9300</v>
+        <v>9900</v>
       </c>
       <c r="F58" s="3">
-        <v>148200</v>
+        <v>8700</v>
       </c>
       <c r="G58" s="3">
-        <v>140700</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>138700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>131600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2162,89 +2296,98 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2200</v>
+        <v>5600</v>
       </c>
       <c r="E59" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F59" s="3">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="G59" s="3">
-        <v>1600</v>
+        <v>2600</v>
       </c>
       <c r="H59" s="3">
-        <v>4600</v>
+        <v>1500</v>
       </c>
       <c r="I59" s="3">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="J59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>87200</v>
+        <v>228400</v>
       </c>
       <c r="E60" s="3">
-        <v>71800</v>
+        <v>81600</v>
       </c>
       <c r="F60" s="3">
-        <v>208100</v>
+        <v>67200</v>
       </c>
       <c r="G60" s="3">
-        <v>193800</v>
+        <v>194700</v>
       </c>
       <c r="H60" s="3">
-        <v>59100</v>
+        <v>181400</v>
       </c>
       <c r="I60" s="3">
-        <v>47500</v>
+        <v>55300</v>
       </c>
       <c r="J60" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K60" s="3">
         <v>63900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>41700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>133500</v>
+        <v>123600</v>
       </c>
       <c r="E61" s="3">
-        <v>143300</v>
+        <v>124900</v>
       </c>
       <c r="F61" s="3">
-        <v>157100</v>
+        <v>134100</v>
       </c>
       <c r="G61" s="3">
-        <v>88000</v>
+        <v>147000</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>82300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2258,40 +2401,46 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26700</v>
+        <v>50600</v>
       </c>
       <c r="E62" s="3">
-        <v>36600</v>
+        <v>25000</v>
       </c>
       <c r="F62" s="3">
-        <v>37400</v>
+        <v>34300</v>
       </c>
       <c r="G62" s="3">
-        <v>21400</v>
+        <v>35000</v>
       </c>
       <c r="H62" s="3">
-        <v>21600</v>
+        <v>20000</v>
       </c>
       <c r="I62" s="3">
-        <v>18600</v>
+        <v>20300</v>
       </c>
       <c r="J62" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K62" s="3">
         <v>18400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2322,8 +2471,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2354,8 +2506,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2386,40 +2541,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>247400</v>
+        <v>402600</v>
       </c>
       <c r="E66" s="3">
-        <v>251700</v>
+        <v>231500</v>
       </c>
       <c r="F66" s="3">
-        <v>402500</v>
+        <v>235600</v>
       </c>
       <c r="G66" s="3">
-        <v>303200</v>
+        <v>376700</v>
       </c>
       <c r="H66" s="3">
-        <v>80700</v>
+        <v>283700</v>
       </c>
       <c r="I66" s="3">
-        <v>66100</v>
+        <v>75500</v>
       </c>
       <c r="J66" s="3">
+        <v>61800</v>
+      </c>
+      <c r="K66" s="3">
         <v>82300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2432,8 +2593,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2464,8 +2626,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2496,8 +2661,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2528,8 +2696,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2560,40 +2731,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>457300</v>
+        <v>437000</v>
       </c>
       <c r="E72" s="3">
-        <v>444400</v>
+        <v>427900</v>
       </c>
       <c r="F72" s="3">
-        <v>422800</v>
+        <v>415900</v>
       </c>
       <c r="G72" s="3">
-        <v>439800</v>
+        <v>395600</v>
       </c>
       <c r="H72" s="3">
-        <v>427800</v>
+        <v>411600</v>
       </c>
       <c r="I72" s="3">
-        <v>409200</v>
+        <v>400400</v>
       </c>
       <c r="J72" s="3">
+        <v>382900</v>
+      </c>
+      <c r="K72" s="3">
         <v>394300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>368600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2624,8 +2801,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2656,8 +2836,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2688,40 +2871,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>827400</v>
+        <v>800400</v>
       </c>
       <c r="E76" s="3">
-        <v>820900</v>
+        <v>774300</v>
       </c>
       <c r="F76" s="3">
-        <v>655200</v>
+        <v>768200</v>
       </c>
       <c r="G76" s="3">
-        <v>508100</v>
+        <v>613100</v>
       </c>
       <c r="H76" s="3">
-        <v>501600</v>
+        <v>475500</v>
       </c>
       <c r="I76" s="3">
-        <v>478800</v>
+        <v>469400</v>
       </c>
       <c r="J76" s="3">
+        <v>448100</v>
+      </c>
+      <c r="K76" s="3">
         <v>458500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>427100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2752,77 +2941,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="E81" s="3">
-        <v>15300</v>
+        <v>3500</v>
       </c>
       <c r="F81" s="3">
-        <v>-17700</v>
+        <v>14300</v>
       </c>
       <c r="G81" s="3">
-        <v>34000</v>
+        <v>-16600</v>
       </c>
       <c r="H81" s="3">
-        <v>22600</v>
+        <v>31800</v>
       </c>
       <c r="I81" s="3">
-        <v>36100</v>
+        <v>21100</v>
       </c>
       <c r="J81" s="3">
+        <v>33800</v>
+      </c>
+      <c r="K81" s="3">
         <v>39000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>43000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2835,40 +3033,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25300</v>
+        <v>26300</v>
       </c>
       <c r="E83" s="3">
-        <v>20900</v>
+        <v>23700</v>
       </c>
       <c r="F83" s="3">
-        <v>21800</v>
+        <v>19500</v>
       </c>
       <c r="G83" s="3">
-        <v>17200</v>
+        <v>20400</v>
       </c>
       <c r="H83" s="3">
-        <v>11100</v>
+        <v>16100</v>
       </c>
       <c r="I83" s="3">
-        <v>9000</v>
+        <v>10400</v>
       </c>
       <c r="J83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K83" s="3">
         <v>8600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2899,8 +3101,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2931,8 +3136,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2963,8 +3171,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2995,8 +3206,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3027,40 +3241,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>49500</v>
+        <v>29600</v>
       </c>
       <c r="E89" s="3">
-        <v>44200</v>
+        <v>46400</v>
       </c>
       <c r="F89" s="3">
-        <v>30500</v>
+        <v>41400</v>
       </c>
       <c r="G89" s="3">
-        <v>51600</v>
+        <v>28500</v>
       </c>
       <c r="H89" s="3">
-        <v>44100</v>
+        <v>48300</v>
       </c>
       <c r="I89" s="3">
-        <v>47500</v>
+        <v>41200</v>
       </c>
       <c r="J89" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K89" s="3">
         <v>39600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>43800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3073,40 +3293,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26100</v>
+        <v>-17700</v>
       </c>
       <c r="E91" s="3">
-        <v>-15000</v>
+        <v>-24400</v>
       </c>
       <c r="F91" s="3">
-        <v>-6300</v>
+        <v>-14000</v>
       </c>
       <c r="G91" s="3">
-        <v>-10300</v>
+        <v>-5900</v>
       </c>
       <c r="H91" s="3">
-        <v>-10300</v>
+        <v>-9600</v>
       </c>
       <c r="I91" s="3">
-        <v>-12800</v>
+        <v>-9600</v>
       </c>
       <c r="J91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-14500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3137,8 +3361,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3169,40 +3396,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-30000</v>
+        <v>-326800</v>
       </c>
       <c r="E94" s="3">
-        <v>-29700</v>
+        <v>-28100</v>
       </c>
       <c r="F94" s="3">
-        <v>-168600</v>
+        <v>-27800</v>
       </c>
       <c r="G94" s="3">
-        <v>-24500</v>
+        <v>-157700</v>
       </c>
       <c r="H94" s="3">
-        <v>-29900</v>
+        <v>-22900</v>
       </c>
       <c r="I94" s="3">
-        <v>-35200</v>
+        <v>-27900</v>
       </c>
       <c r="J94" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-34700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3215,8 +3448,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3227,28 +3461,31 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-9500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-23100</v>
+        <v>-8900</v>
       </c>
       <c r="H96" s="3">
-        <v>-9500</v>
+        <v>-21600</v>
       </c>
       <c r="I96" s="3">
-        <v>-22900</v>
+        <v>-8900</v>
       </c>
       <c r="J96" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-9100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-20100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3279,8 +3516,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3311,8 +3551,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3343,100 +3586,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8000</v>
+        <v>143300</v>
       </c>
       <c r="E100" s="3">
-        <v>19600</v>
+        <v>-7400</v>
       </c>
       <c r="F100" s="3">
-        <v>131700</v>
+        <v>18300</v>
       </c>
       <c r="G100" s="3">
-        <v>109000</v>
+        <v>123200</v>
       </c>
       <c r="H100" s="3">
-        <v>-9800</v>
+        <v>102000</v>
       </c>
       <c r="I100" s="3">
-        <v>-22400</v>
+        <v>-9100</v>
       </c>
       <c r="J100" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-8200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1200</v>
+        <v>1600</v>
       </c>
       <c r="E101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G101" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>700</v>
-      </c>
       <c r="I101" s="3">
+        <v>600</v>
+      </c>
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10400</v>
+        <v>-152200</v>
       </c>
       <c r="E102" s="3">
-        <v>32100</v>
+        <v>9800</v>
       </c>
       <c r="F102" s="3">
-        <v>-3400</v>
+        <v>30000</v>
       </c>
       <c r="G102" s="3">
-        <v>134000</v>
+        <v>-3200</v>
       </c>
       <c r="H102" s="3">
-        <v>5100</v>
+        <v>125400</v>
       </c>
       <c r="I102" s="3">
-        <v>-9100</v>
+        <v>4800</v>
       </c>
       <c r="J102" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9100</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABCM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABCM_QTR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>201500</v>
+        <v>195400</v>
       </c>
       <c r="E8" s="3">
-        <v>183200</v>
+        <v>177700</v>
       </c>
       <c r="F8" s="3">
-        <v>179900</v>
+        <v>174500</v>
       </c>
       <c r="G8" s="3">
-        <v>148600</v>
+        <v>144100</v>
       </c>
       <c r="H8" s="3">
-        <v>168600</v>
+        <v>163500</v>
       </c>
       <c r="I8" s="3">
-        <v>164900</v>
+        <v>159900</v>
       </c>
       <c r="J8" s="3">
-        <v>152100</v>
+        <v>147500</v>
       </c>
       <c r="K8" s="3">
         <v>157300</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>58300</v>
+        <v>56500</v>
       </c>
       <c r="E9" s="3">
-        <v>52500</v>
+        <v>50900</v>
       </c>
       <c r="F9" s="3">
-        <v>52300</v>
+        <v>50700</v>
       </c>
       <c r="G9" s="3">
-        <v>46200</v>
+        <v>44800</v>
       </c>
       <c r="H9" s="3">
-        <v>51100</v>
+        <v>49600</v>
       </c>
       <c r="I9" s="3">
-        <v>48300</v>
+        <v>46800</v>
       </c>
       <c r="J9" s="3">
-        <v>45300</v>
+        <v>43900</v>
       </c>
       <c r="K9" s="3">
         <v>47200</v>
@@ -798,25 +798,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>143200</v>
+        <v>138900</v>
       </c>
       <c r="E10" s="3">
-        <v>130800</v>
+        <v>126800</v>
       </c>
       <c r="F10" s="3">
-        <v>127600</v>
+        <v>123700</v>
       </c>
       <c r="G10" s="3">
-        <v>102300</v>
+        <v>99200</v>
       </c>
       <c r="H10" s="3">
-        <v>117500</v>
+        <v>113900</v>
       </c>
       <c r="I10" s="3">
-        <v>116600</v>
+        <v>113100</v>
       </c>
       <c r="J10" s="3">
-        <v>106900</v>
+        <v>103600</v>
       </c>
       <c r="K10" s="3">
         <v>110200</v>
@@ -848,25 +848,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="E12" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="F12" s="3">
-        <v>12800</v>
+        <v>12400</v>
       </c>
       <c r="G12" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="H12" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="I12" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="J12" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="K12" s="3">
         <v>7400</v>
@@ -918,25 +918,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>26000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I14" s="3">
         <v>20000</v>
       </c>
-      <c r="E14" s="3">
-        <v>6300</v>
-      </c>
-      <c r="F14" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G14" s="3">
-        <v>26800</v>
-      </c>
-      <c r="H14" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I14" s="3">
-        <v>20600</v>
-      </c>
       <c r="J14" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -953,25 +953,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G15" s="3">
         <v>6200</v>
       </c>
-      <c r="E15" s="3">
-        <v>5200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5400</v>
-      </c>
-      <c r="G15" s="3">
-        <v>6300</v>
-      </c>
       <c r="H15" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I15" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J15" s="3">
         <v>3900</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4000</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -1000,25 +1000,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>206200</v>
+        <v>199900</v>
       </c>
       <c r="E17" s="3">
-        <v>170700</v>
+        <v>165500</v>
       </c>
       <c r="F17" s="3">
-        <v>161000</v>
+        <v>153300</v>
       </c>
       <c r="G17" s="3">
-        <v>168200</v>
+        <v>163100</v>
       </c>
       <c r="H17" s="3">
-        <v>136100</v>
+        <v>132000</v>
       </c>
       <c r="I17" s="3">
-        <v>137200</v>
+        <v>133100</v>
       </c>
       <c r="J17" s="3">
-        <v>111400</v>
+        <v>108000</v>
       </c>
       <c r="K17" s="3">
         <v>110300</v>
@@ -1035,25 +1035,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="E18" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="F18" s="3">
-        <v>18900</v>
+        <v>21200</v>
       </c>
       <c r="G18" s="3">
-        <v>-19600</v>
+        <v>-19000</v>
       </c>
       <c r="H18" s="3">
-        <v>32400</v>
+        <v>31500</v>
       </c>
       <c r="I18" s="3">
-        <v>27700</v>
+        <v>26900</v>
       </c>
       <c r="J18" s="3">
-        <v>40700</v>
+        <v>39500</v>
       </c>
       <c r="K18" s="3">
         <v>47100</v>
@@ -1085,7 +1085,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -1120,25 +1120,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="E21" s="3">
-        <v>36500</v>
+        <v>35400</v>
       </c>
       <c r="F21" s="3">
-        <v>38700</v>
+        <v>40300</v>
       </c>
       <c r="G21" s="3">
         <v>-600</v>
       </c>
       <c r="H21" s="3">
-        <v>49200</v>
+        <v>47700</v>
       </c>
       <c r="I21" s="3">
-        <v>38100</v>
+        <v>36900</v>
       </c>
       <c r="J21" s="3">
-        <v>49500</v>
+        <v>48000</v>
       </c>
       <c r="K21" s="3">
         <v>55900</v>
@@ -1158,10 +1158,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F22" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G22" s="3">
         <v>500</v>
@@ -1190,25 +1190,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6200</v>
+        <v>-6000</v>
       </c>
       <c r="E23" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="F23" s="3">
-        <v>16800</v>
+        <v>19200</v>
       </c>
       <c r="G23" s="3">
-        <v>-21500</v>
+        <v>-20800</v>
       </c>
       <c r="H23" s="3">
-        <v>31700</v>
+        <v>30800</v>
       </c>
       <c r="I23" s="3">
-        <v>27700</v>
+        <v>26900</v>
       </c>
       <c r="J23" s="3">
-        <v>41100</v>
+        <v>39900</v>
       </c>
       <c r="K23" s="3">
         <v>47300</v>
@@ -1225,25 +1225,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-7400</v>
+        <v>-7200</v>
       </c>
       <c r="E24" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="F24" s="3">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="G24" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="H24" s="3">
         <v>-100</v>
       </c>
       <c r="I24" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="J24" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="K24" s="3">
         <v>8000</v>
@@ -1298,22 +1298,22 @@
         <v>1200</v>
       </c>
       <c r="E26" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F26" s="3">
-        <v>14300</v>
+        <v>15700</v>
       </c>
       <c r="G26" s="3">
-        <v>-16600</v>
+        <v>-16100</v>
       </c>
       <c r="H26" s="3">
-        <v>31800</v>
+        <v>30900</v>
       </c>
       <c r="I26" s="3">
-        <v>21300</v>
+        <v>20700</v>
       </c>
       <c r="J26" s="3">
-        <v>33800</v>
+        <v>32800</v>
       </c>
       <c r="K26" s="3">
         <v>39400</v>
@@ -1333,22 +1333,22 @@
         <v>1200</v>
       </c>
       <c r="E27" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F27" s="3">
-        <v>14300</v>
+        <v>15700</v>
       </c>
       <c r="G27" s="3">
-        <v>-16600</v>
+        <v>-16100</v>
       </c>
       <c r="H27" s="3">
-        <v>31800</v>
+        <v>30900</v>
       </c>
       <c r="I27" s="3">
-        <v>21300</v>
+        <v>20700</v>
       </c>
       <c r="J27" s="3">
-        <v>33800</v>
+        <v>32800</v>
       </c>
       <c r="K27" s="3">
         <v>39400</v>
@@ -1505,7 +1505,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
@@ -1543,22 +1543,22 @@
         <v>1200</v>
       </c>
       <c r="E33" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F33" s="3">
-        <v>14300</v>
+        <v>15700</v>
       </c>
       <c r="G33" s="3">
-        <v>-16600</v>
+        <v>-16100</v>
       </c>
       <c r="H33" s="3">
-        <v>31800</v>
+        <v>30900</v>
       </c>
       <c r="I33" s="3">
-        <v>21100</v>
+        <v>20500</v>
       </c>
       <c r="J33" s="3">
-        <v>33800</v>
+        <v>32800</v>
       </c>
       <c r="K33" s="3">
         <v>39000</v>
@@ -1613,22 +1613,22 @@
         <v>1200</v>
       </c>
       <c r="E35" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F35" s="3">
-        <v>14300</v>
+        <v>15700</v>
       </c>
       <c r="G35" s="3">
-        <v>-16600</v>
+        <v>-16100</v>
       </c>
       <c r="H35" s="3">
-        <v>31800</v>
+        <v>30900</v>
       </c>
       <c r="I35" s="3">
-        <v>21100</v>
+        <v>20500</v>
       </c>
       <c r="J35" s="3">
-        <v>33800</v>
+        <v>32800</v>
       </c>
       <c r="K35" s="3">
         <v>39000</v>
@@ -1715,25 +1715,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>116000</v>
+        <v>112500</v>
       </c>
       <c r="E41" s="3">
-        <v>268300</v>
+        <v>260100</v>
       </c>
       <c r="F41" s="3">
-        <v>258500</v>
+        <v>250700</v>
       </c>
       <c r="G41" s="3">
-        <v>228500</v>
+        <v>221600</v>
       </c>
       <c r="H41" s="3">
-        <v>231700</v>
+        <v>224600</v>
       </c>
       <c r="I41" s="3">
-        <v>106300</v>
+        <v>103000</v>
       </c>
       <c r="J41" s="3">
-        <v>101500</v>
+        <v>98400</v>
       </c>
       <c r="K41" s="3">
         <v>117600</v>
@@ -1785,25 +1785,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>70400</v>
+        <v>68300</v>
       </c>
       <c r="E43" s="3">
-        <v>65000</v>
+        <v>63000</v>
       </c>
       <c r="F43" s="3">
-        <v>63300</v>
+        <v>61400</v>
       </c>
       <c r="G43" s="3">
-        <v>62000</v>
+        <v>60100</v>
       </c>
       <c r="H43" s="3">
-        <v>56000</v>
+        <v>54300</v>
       </c>
       <c r="I43" s="3">
-        <v>59200</v>
+        <v>57400</v>
       </c>
       <c r="J43" s="3">
-        <v>37500</v>
+        <v>36300</v>
       </c>
       <c r="K43" s="3">
         <v>51200</v>
@@ -1820,25 +1820,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>71000</v>
+        <v>68800</v>
       </c>
       <c r="E44" s="3">
-        <v>56000</v>
+        <v>54300</v>
       </c>
       <c r="F44" s="3">
-        <v>52900</v>
+        <v>51300</v>
       </c>
       <c r="G44" s="3">
-        <v>49600</v>
+        <v>48100</v>
       </c>
       <c r="H44" s="3">
-        <v>48200</v>
+        <v>46700</v>
       </c>
       <c r="I44" s="3">
-        <v>43900</v>
+        <v>42600</v>
       </c>
       <c r="J44" s="3">
-        <v>39200</v>
+        <v>38000</v>
       </c>
       <c r="K44" s="3">
         <v>38600</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
@@ -1890,25 +1890,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>258000</v>
+        <v>250200</v>
       </c>
       <c r="E46" s="3">
-        <v>390000</v>
+        <v>378200</v>
       </c>
       <c r="F46" s="3">
-        <v>375100</v>
+        <v>363700</v>
       </c>
       <c r="G46" s="3">
-        <v>340100</v>
+        <v>329800</v>
       </c>
       <c r="H46" s="3">
-        <v>338400</v>
+        <v>328100</v>
       </c>
       <c r="I46" s="3">
-        <v>209600</v>
+        <v>203200</v>
       </c>
       <c r="J46" s="3">
-        <v>178200</v>
+        <v>172800</v>
       </c>
       <c r="K46" s="3">
         <v>208400</v>
@@ -1925,25 +1925,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="E47" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="F47" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="G47" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="H47" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I47" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J47" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K47" s="3">
         <v>1200</v>
@@ -1960,25 +1960,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>197300</v>
+        <v>191300</v>
       </c>
       <c r="E48" s="3">
-        <v>195200</v>
+        <v>189300</v>
       </c>
       <c r="F48" s="3">
-        <v>192100</v>
+        <v>186300</v>
       </c>
       <c r="G48" s="3">
-        <v>200900</v>
+        <v>194800</v>
       </c>
       <c r="H48" s="3">
-        <v>132000</v>
+        <v>128000</v>
       </c>
       <c r="I48" s="3">
-        <v>45300</v>
+        <v>43900</v>
       </c>
       <c r="J48" s="3">
-        <v>39900</v>
+        <v>38700</v>
       </c>
       <c r="K48" s="3">
         <v>32700</v>
@@ -1995,25 +1995,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>730700</v>
+        <v>708600</v>
       </c>
       <c r="E49" s="3">
-        <v>410100</v>
+        <v>397700</v>
       </c>
       <c r="F49" s="3">
-        <v>413300</v>
+        <v>400800</v>
       </c>
       <c r="G49" s="3">
-        <v>423500</v>
+        <v>410700</v>
       </c>
       <c r="H49" s="3">
-        <v>275200</v>
+        <v>266900</v>
       </c>
       <c r="I49" s="3">
-        <v>277600</v>
+        <v>269200</v>
       </c>
       <c r="J49" s="3">
-        <v>281300</v>
+        <v>272800</v>
       </c>
       <c r="K49" s="3">
         <v>287400</v>
@@ -2100,25 +2100,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="E52" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="F52" s="3">
-        <v>19000</v>
+        <v>18500</v>
       </c>
       <c r="G52" s="3">
-        <v>16700</v>
+        <v>16200</v>
       </c>
       <c r="H52" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="I52" s="3">
-        <v>11500</v>
+        <v>11100</v>
       </c>
       <c r="J52" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="K52" s="3">
         <v>11000</v>
@@ -2170,25 +2170,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1202900</v>
+        <v>1166500</v>
       </c>
       <c r="E54" s="3">
-        <v>1005800</v>
+        <v>975300</v>
       </c>
       <c r="F54" s="3">
-        <v>1003700</v>
+        <v>973300</v>
       </c>
       <c r="G54" s="3">
-        <v>989800</v>
+        <v>959800</v>
       </c>
       <c r="H54" s="3">
-        <v>759300</v>
+        <v>736200</v>
       </c>
       <c r="I54" s="3">
-        <v>544900</v>
+        <v>528400</v>
       </c>
       <c r="J54" s="3">
-        <v>509900</v>
+        <v>494500</v>
       </c>
       <c r="K54" s="3">
         <v>540700</v>
@@ -2235,25 +2235,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>66100</v>
+        <v>64100</v>
       </c>
       <c r="E57" s="3">
-        <v>69700</v>
+        <v>67500</v>
       </c>
       <c r="F57" s="3">
-        <v>56700</v>
+        <v>55000</v>
       </c>
       <c r="G57" s="3">
-        <v>53400</v>
+        <v>51800</v>
       </c>
       <c r="H57" s="3">
-        <v>48300</v>
+        <v>46800</v>
       </c>
       <c r="I57" s="3">
-        <v>51000</v>
+        <v>49400</v>
       </c>
       <c r="J57" s="3">
-        <v>40600</v>
+        <v>39400</v>
       </c>
       <c r="K57" s="3">
         <v>59700</v>
@@ -2270,19 +2270,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>156600</v>
+        <v>151900</v>
       </c>
       <c r="E58" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="F58" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="G58" s="3">
-        <v>138700</v>
+        <v>134500</v>
       </c>
       <c r="H58" s="3">
-        <v>131600</v>
+        <v>127600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2305,25 +2305,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="E59" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F59" s="3">
         <v>1800</v>
       </c>
       <c r="G59" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H59" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I59" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="J59" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="K59" s="3">
         <v>4200</v>
@@ -2340,25 +2340,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>228400</v>
+        <v>221400</v>
       </c>
       <c r="E60" s="3">
-        <v>81600</v>
+        <v>79100</v>
       </c>
       <c r="F60" s="3">
-        <v>67200</v>
+        <v>65200</v>
       </c>
       <c r="G60" s="3">
-        <v>194700</v>
+        <v>188800</v>
       </c>
       <c r="H60" s="3">
-        <v>181400</v>
+        <v>175900</v>
       </c>
       <c r="I60" s="3">
-        <v>55300</v>
+        <v>53600</v>
       </c>
       <c r="J60" s="3">
-        <v>44400</v>
+        <v>43100</v>
       </c>
       <c r="K60" s="3">
         <v>63900</v>
@@ -2375,19 +2375,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>123600</v>
+        <v>119800</v>
       </c>
       <c r="E61" s="3">
-        <v>124900</v>
+        <v>121100</v>
       </c>
       <c r="F61" s="3">
-        <v>134100</v>
+        <v>130000</v>
       </c>
       <c r="G61" s="3">
-        <v>147000</v>
+        <v>142500</v>
       </c>
       <c r="H61" s="3">
-        <v>82300</v>
+        <v>79800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2410,25 +2410,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>50600</v>
+        <v>49100</v>
       </c>
       <c r="E62" s="3">
-        <v>25000</v>
+        <v>24200</v>
       </c>
       <c r="F62" s="3">
-        <v>34300</v>
+        <v>33200</v>
       </c>
       <c r="G62" s="3">
-        <v>35000</v>
+        <v>33900</v>
       </c>
       <c r="H62" s="3">
-        <v>20000</v>
+        <v>19400</v>
       </c>
       <c r="I62" s="3">
-        <v>20300</v>
+        <v>19600</v>
       </c>
       <c r="J62" s="3">
-        <v>17400</v>
+        <v>16900</v>
       </c>
       <c r="K62" s="3">
         <v>18400</v>
@@ -2550,25 +2550,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>402600</v>
+        <v>390400</v>
       </c>
       <c r="E66" s="3">
-        <v>231500</v>
+        <v>224500</v>
       </c>
       <c r="F66" s="3">
-        <v>235600</v>
+        <v>228400</v>
       </c>
       <c r="G66" s="3">
-        <v>376700</v>
+        <v>365300</v>
       </c>
       <c r="H66" s="3">
-        <v>283700</v>
+        <v>275100</v>
       </c>
       <c r="I66" s="3">
-        <v>75500</v>
+        <v>73200</v>
       </c>
       <c r="J66" s="3">
-        <v>61800</v>
+        <v>60000</v>
       </c>
       <c r="K66" s="3">
         <v>82300</v>
@@ -2740,25 +2740,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>437000</v>
+        <v>423700</v>
       </c>
       <c r="E72" s="3">
-        <v>427900</v>
+        <v>415000</v>
       </c>
       <c r="F72" s="3">
-        <v>415900</v>
+        <v>403300</v>
       </c>
       <c r="G72" s="3">
-        <v>395600</v>
+        <v>383600</v>
       </c>
       <c r="H72" s="3">
-        <v>411600</v>
+        <v>399100</v>
       </c>
       <c r="I72" s="3">
-        <v>400400</v>
+        <v>388200</v>
       </c>
       <c r="J72" s="3">
-        <v>382900</v>
+        <v>371300</v>
       </c>
       <c r="K72" s="3">
         <v>394300</v>
@@ -2880,25 +2880,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>800400</v>
+        <v>776100</v>
       </c>
       <c r="E76" s="3">
-        <v>774300</v>
+        <v>750800</v>
       </c>
       <c r="F76" s="3">
-        <v>768200</v>
+        <v>744900</v>
       </c>
       <c r="G76" s="3">
-        <v>613100</v>
+        <v>594500</v>
       </c>
       <c r="H76" s="3">
-        <v>475500</v>
+        <v>461100</v>
       </c>
       <c r="I76" s="3">
-        <v>469400</v>
+        <v>455200</v>
       </c>
       <c r="J76" s="3">
-        <v>448100</v>
+        <v>434500</v>
       </c>
       <c r="K76" s="3">
         <v>458500</v>
@@ -2993,22 +2993,22 @@
         <v>1200</v>
       </c>
       <c r="E81" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F81" s="3">
-        <v>14300</v>
+        <v>15700</v>
       </c>
       <c r="G81" s="3">
-        <v>-16600</v>
+        <v>-16100</v>
       </c>
       <c r="H81" s="3">
-        <v>31800</v>
+        <v>30900</v>
       </c>
       <c r="I81" s="3">
-        <v>21100</v>
+        <v>20500</v>
       </c>
       <c r="J81" s="3">
-        <v>33800</v>
+        <v>32800</v>
       </c>
       <c r="K81" s="3">
         <v>39000</v>
@@ -3040,25 +3040,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26300</v>
+        <v>25600</v>
       </c>
       <c r="E83" s="3">
-        <v>23700</v>
+        <v>22900</v>
       </c>
       <c r="F83" s="3">
-        <v>19500</v>
+        <v>18900</v>
       </c>
       <c r="G83" s="3">
-        <v>20400</v>
+        <v>19800</v>
       </c>
       <c r="H83" s="3">
-        <v>16100</v>
+        <v>15600</v>
       </c>
       <c r="I83" s="3">
-        <v>10400</v>
+        <v>10100</v>
       </c>
       <c r="J83" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="K83" s="3">
         <v>8600</v>
@@ -3250,25 +3250,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>29600</v>
+        <v>28700</v>
       </c>
       <c r="E89" s="3">
-        <v>46400</v>
+        <v>45000</v>
       </c>
       <c r="F89" s="3">
-        <v>41400</v>
+        <v>40100</v>
       </c>
       <c r="G89" s="3">
-        <v>28500</v>
+        <v>27700</v>
       </c>
       <c r="H89" s="3">
-        <v>48300</v>
+        <v>46800</v>
       </c>
       <c r="I89" s="3">
-        <v>41200</v>
+        <v>40000</v>
       </c>
       <c r="J89" s="3">
-        <v>44400</v>
+        <v>43100</v>
       </c>
       <c r="K89" s="3">
         <v>39600</v>
@@ -3300,25 +3300,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17700</v>
+        <v>-17200</v>
       </c>
       <c r="E91" s="3">
-        <v>-24400</v>
+        <v>-23700</v>
       </c>
       <c r="F91" s="3">
-        <v>-14000</v>
+        <v>-13600</v>
       </c>
       <c r="G91" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="H91" s="3">
-        <v>-9600</v>
+        <v>-9300</v>
       </c>
       <c r="I91" s="3">
-        <v>-9600</v>
+        <v>-9300</v>
       </c>
       <c r="J91" s="3">
-        <v>-12000</v>
+        <v>-11600</v>
       </c>
       <c r="K91" s="3">
         <v>-14500</v>
@@ -3405,25 +3405,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-326800</v>
+        <v>-316900</v>
       </c>
       <c r="E94" s="3">
-        <v>-28100</v>
+        <v>-27200</v>
       </c>
       <c r="F94" s="3">
-        <v>-27800</v>
+        <v>-27000</v>
       </c>
       <c r="G94" s="3">
-        <v>-157700</v>
+        <v>-152900</v>
       </c>
       <c r="H94" s="3">
-        <v>-22900</v>
+        <v>-22200</v>
       </c>
       <c r="I94" s="3">
-        <v>-27900</v>
+        <v>-27100</v>
       </c>
       <c r="J94" s="3">
-        <v>-32900</v>
+        <v>-31900</v>
       </c>
       <c r="K94" s="3">
         <v>-34700</v>
@@ -3464,16 +3464,16 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-8900</v>
+        <v>-8600</v>
       </c>
       <c r="H96" s="3">
-        <v>-21600</v>
+        <v>-20900</v>
       </c>
       <c r="I96" s="3">
-        <v>-8900</v>
+        <v>-8600</v>
       </c>
       <c r="J96" s="3">
-        <v>-21500</v>
+        <v>-20800</v>
       </c>
       <c r="K96" s="3">
         <v>-9100</v>
@@ -3595,25 +3595,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>143300</v>
+        <v>139000</v>
       </c>
       <c r="E100" s="3">
-        <v>-7400</v>
+        <v>-7200</v>
       </c>
       <c r="F100" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="G100" s="3">
-        <v>123200</v>
+        <v>119500</v>
       </c>
       <c r="H100" s="3">
-        <v>102000</v>
+        <v>98900</v>
       </c>
       <c r="I100" s="3">
-        <v>-9100</v>
+        <v>-8900</v>
       </c>
       <c r="J100" s="3">
-        <v>-21000</v>
+        <v>-20300</v>
       </c>
       <c r="K100" s="3">
         <v>-8200</v>
@@ -3630,7 +3630,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E101" s="3">
         <v>-1100</v>
@@ -3639,16 +3639,16 @@
         <v>-1800</v>
       </c>
       <c r="G101" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H101" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="I101" s="3">
         <v>600</v>
       </c>
       <c r="J101" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K101" s="3">
         <v>1400</v>
@@ -3665,25 +3665,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-152200</v>
+        <v>-147600</v>
       </c>
       <c r="E102" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="F102" s="3">
-        <v>30000</v>
+        <v>29100</v>
       </c>
       <c r="G102" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="H102" s="3">
-        <v>125400</v>
+        <v>121600</v>
       </c>
       <c r="I102" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="J102" s="3">
-        <v>-8500</v>
+        <v>-8300</v>
       </c>
       <c r="K102" s="3">
         <v>-1800</v>

--- a/AAII_Financials/Quarterly/ABCM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABCM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>ABCM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,183 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>195400</v>
+        <v>216900</v>
       </c>
       <c r="E8" s="3">
-        <v>177700</v>
+        <v>193500</v>
       </c>
       <c r="F8" s="3">
-        <v>174500</v>
+        <v>175900</v>
       </c>
       <c r="G8" s="3">
-        <v>144100</v>
+        <v>172800</v>
       </c>
       <c r="H8" s="3">
-        <v>163500</v>
+        <v>142700</v>
       </c>
       <c r="I8" s="3">
-        <v>159900</v>
+        <v>161900</v>
       </c>
       <c r="J8" s="3">
+        <v>158400</v>
+      </c>
+      <c r="K8" s="3">
         <v>147500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>157300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>149700</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>56500</v>
+        <v>56100</v>
       </c>
       <c r="E9" s="3">
-        <v>50900</v>
+        <v>56000</v>
       </c>
       <c r="F9" s="3">
-        <v>50700</v>
+        <v>50400</v>
       </c>
       <c r="G9" s="3">
-        <v>44800</v>
+        <v>50200</v>
       </c>
       <c r="H9" s="3">
-        <v>49600</v>
+        <v>44400</v>
       </c>
       <c r="I9" s="3">
-        <v>46800</v>
+        <v>49100</v>
       </c>
       <c r="J9" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K9" s="3">
         <v>43900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>47200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>45300</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>138900</v>
+        <v>160800</v>
       </c>
       <c r="E10" s="3">
-        <v>126800</v>
+        <v>137500</v>
       </c>
       <c r="F10" s="3">
-        <v>123700</v>
+        <v>125600</v>
       </c>
       <c r="G10" s="3">
-        <v>99200</v>
+        <v>122500</v>
       </c>
       <c r="H10" s="3">
-        <v>113900</v>
+        <v>98300</v>
       </c>
       <c r="I10" s="3">
-        <v>113100</v>
+        <v>112800</v>
       </c>
       <c r="J10" s="3">
+        <v>112000</v>
+      </c>
+      <c r="K10" s="3">
         <v>103600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>110200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>104500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,43 +855,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="E12" s="3">
-        <v>9600</v>
+        <v>13800</v>
       </c>
       <c r="F12" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>12300</v>
+      </c>
+      <c r="H12" s="3">
         <v>12400</v>
       </c>
-      <c r="G12" s="3">
-        <v>12500</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8000</v>
       </c>
-      <c r="I12" s="3">
-        <v>5700</v>
-      </c>
       <c r="J12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K12" s="3">
         <v>7000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13700</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,78 +929,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>19400</v>
+        <v>10100</v>
       </c>
       <c r="E14" s="3">
-        <v>6200</v>
+        <v>19200</v>
       </c>
       <c r="F14" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G14" s="3">
         <v>4700</v>
       </c>
-      <c r="G14" s="3">
-        <v>26000</v>
-      </c>
       <c r="H14" s="3">
+        <v>25800</v>
+      </c>
+      <c r="I14" s="3">
         <v>4000</v>
       </c>
-      <c r="I14" s="3">
-        <v>20000</v>
-      </c>
       <c r="J14" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K14" s="3">
         <v>4800</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E15" s="3">
         <v>6000</v>
       </c>
-      <c r="E15" s="3">
-        <v>5100</v>
-      </c>
       <c r="F15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G15" s="3">
         <v>8600</v>
       </c>
-      <c r="G15" s="3">
-        <v>6200</v>
-      </c>
       <c r="H15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I15" s="3">
         <v>4000</v>
       </c>
-      <c r="I15" s="3">
-        <v>3800</v>
-      </c>
       <c r="J15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K15" s="3">
         <v>3900</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,78 +1020,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>199900</v>
+        <v>206000</v>
       </c>
       <c r="E17" s="3">
-        <v>165500</v>
+        <v>197900</v>
       </c>
       <c r="F17" s="3">
-        <v>153300</v>
+        <v>163900</v>
       </c>
       <c r="G17" s="3">
-        <v>163100</v>
+        <v>151800</v>
       </c>
       <c r="H17" s="3">
-        <v>132000</v>
+        <v>161500</v>
       </c>
       <c r="I17" s="3">
-        <v>133100</v>
+        <v>130700</v>
       </c>
       <c r="J17" s="3">
+        <v>131800</v>
+      </c>
+      <c r="K17" s="3">
         <v>108000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>110300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>106200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4500</v>
       </c>
-      <c r="E18" s="3">
-        <v>12200</v>
-      </c>
       <c r="F18" s="3">
-        <v>21200</v>
+        <v>12100</v>
       </c>
       <c r="G18" s="3">
-        <v>-19000</v>
+        <v>21000</v>
       </c>
       <c r="H18" s="3">
-        <v>31500</v>
+        <v>-18900</v>
       </c>
       <c r="I18" s="3">
-        <v>26900</v>
+        <v>31200</v>
       </c>
       <c r="J18" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K18" s="3">
         <v>39500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>47100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>43500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,99 +1112,106 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E20" s="3">
-        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>19500</v>
+        <v>38400</v>
       </c>
       <c r="E21" s="3">
-        <v>35400</v>
+        <v>19300</v>
       </c>
       <c r="F21" s="3">
-        <v>40300</v>
+        <v>35000</v>
       </c>
       <c r="G21" s="3">
+        <v>39900</v>
+      </c>
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
-        <v>47700</v>
-      </c>
       <c r="I21" s="3">
-        <v>36900</v>
+        <v>47200</v>
       </c>
       <c r="J21" s="3">
+        <v>36500</v>
+      </c>
+      <c r="K21" s="3">
         <v>48000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>55900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>52000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,78 +1224,87 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6000</v>
       </c>
-      <c r="E23" s="3">
-        <v>10900</v>
-      </c>
       <c r="F23" s="3">
-        <v>19200</v>
+        <v>10800</v>
       </c>
       <c r="G23" s="3">
-        <v>-20800</v>
+        <v>19000</v>
       </c>
       <c r="H23" s="3">
-        <v>30800</v>
+        <v>-20600</v>
       </c>
       <c r="I23" s="3">
-        <v>26900</v>
+        <v>30500</v>
       </c>
       <c r="J23" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K23" s="3">
         <v>39900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>47300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>43700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-7200</v>
+        <v>1900</v>
       </c>
       <c r="E24" s="3">
-        <v>7500</v>
+        <v>-7100</v>
       </c>
       <c r="F24" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G24" s="3">
         <v>3400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>6200</v>
-      </c>
       <c r="J24" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K24" s="3">
         <v>7100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>8000</v>
       </c>
       <c r="L24" s="3">
         <v>8000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1338,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3400</v>
       </c>
-      <c r="F26" s="3">
-        <v>15700</v>
-      </c>
       <c r="G26" s="3">
-        <v>-16100</v>
+        <v>15600</v>
       </c>
       <c r="H26" s="3">
-        <v>30900</v>
+        <v>-15900</v>
       </c>
       <c r="I26" s="3">
-        <v>20700</v>
+        <v>30600</v>
       </c>
       <c r="J26" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K26" s="3">
         <v>32800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>39400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>35700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3400</v>
       </c>
-      <c r="F27" s="3">
-        <v>15700</v>
-      </c>
       <c r="G27" s="3">
-        <v>-16100</v>
+        <v>15600</v>
       </c>
       <c r="H27" s="3">
-        <v>30900</v>
+        <v>-15900</v>
       </c>
       <c r="I27" s="3">
-        <v>20700</v>
+        <v>30600</v>
       </c>
       <c r="J27" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K27" s="3">
         <v>32800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>39400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>35700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,8 +1452,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1408,29 +1469,32 @@
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>7300</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,78 +1566,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1500</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3400</v>
       </c>
-      <c r="F33" s="3">
-        <v>15700</v>
-      </c>
       <c r="G33" s="3">
-        <v>-16100</v>
+        <v>15600</v>
       </c>
       <c r="H33" s="3">
-        <v>30900</v>
+        <v>-15900</v>
       </c>
       <c r="I33" s="3">
-        <v>20500</v>
+        <v>30600</v>
       </c>
       <c r="J33" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K33" s="3">
         <v>32800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>43000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1680,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3400</v>
       </c>
-      <c r="F35" s="3">
-        <v>15700</v>
-      </c>
       <c r="G35" s="3">
-        <v>-16100</v>
+        <v>15600</v>
       </c>
       <c r="H35" s="3">
-        <v>30900</v>
+        <v>-15900</v>
       </c>
       <c r="I35" s="3">
-        <v>20500</v>
+        <v>30600</v>
       </c>
       <c r="J35" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K35" s="3">
         <v>32800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>43000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,43 +1795,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>112500</v>
+        <v>128400</v>
       </c>
       <c r="E41" s="3">
-        <v>260100</v>
+        <v>111400</v>
       </c>
       <c r="F41" s="3">
-        <v>250700</v>
+        <v>257600</v>
       </c>
       <c r="G41" s="3">
-        <v>221600</v>
+        <v>248200</v>
       </c>
       <c r="H41" s="3">
-        <v>224600</v>
+        <v>219400</v>
       </c>
       <c r="I41" s="3">
-        <v>103000</v>
+        <v>222400</v>
       </c>
       <c r="J41" s="3">
+        <v>102000</v>
+      </c>
+      <c r="K41" s="3">
         <v>98400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>117600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>121900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1770,262 +1860,286 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3">
         <v>1500</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>68300</v>
+        <v>84500</v>
       </c>
       <c r="E43" s="3">
-        <v>63000</v>
+        <v>67600</v>
       </c>
       <c r="F43" s="3">
-        <v>61400</v>
+        <v>62400</v>
       </c>
       <c r="G43" s="3">
-        <v>60100</v>
+        <v>60800</v>
       </c>
       <c r="H43" s="3">
-        <v>54300</v>
+        <v>59500</v>
       </c>
       <c r="I43" s="3">
-        <v>57400</v>
+        <v>53800</v>
       </c>
       <c r="J43" s="3">
+        <v>56800</v>
+      </c>
+      <c r="K43" s="3">
         <v>36300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>51200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>40200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>68800</v>
+        <v>67300</v>
       </c>
       <c r="E44" s="3">
-        <v>54300</v>
+        <v>68200</v>
       </c>
       <c r="F44" s="3">
-        <v>51300</v>
+        <v>53800</v>
       </c>
       <c r="G44" s="3">
-        <v>48100</v>
+        <v>50800</v>
       </c>
       <c r="H44" s="3">
-        <v>46700</v>
+        <v>47700</v>
       </c>
       <c r="I44" s="3">
-        <v>42600</v>
+        <v>46300</v>
       </c>
       <c r="J44" s="3">
+        <v>42200</v>
+      </c>
+      <c r="K44" s="3">
         <v>38000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>38600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>29800</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>250200</v>
+        <v>302000</v>
       </c>
       <c r="E46" s="3">
-        <v>378200</v>
+        <v>247700</v>
       </c>
       <c r="F46" s="3">
-        <v>363700</v>
+        <v>374500</v>
       </c>
       <c r="G46" s="3">
-        <v>329800</v>
+        <v>360200</v>
       </c>
       <c r="H46" s="3">
-        <v>328100</v>
+        <v>326600</v>
       </c>
       <c r="I46" s="3">
-        <v>203200</v>
+        <v>324900</v>
       </c>
       <c r="J46" s="3">
+        <v>201200</v>
+      </c>
+      <c r="K46" s="3">
         <v>172800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>208400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>196500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="E47" s="3">
         <v>4100</v>
       </c>
       <c r="F47" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G47" s="3">
         <v>4000</v>
       </c>
-      <c r="G47" s="3">
-        <v>8300</v>
-      </c>
       <c r="H47" s="3">
-        <v>3700</v>
+        <v>8200</v>
       </c>
       <c r="I47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J47" s="3">
         <v>900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>191300</v>
+        <v>194100</v>
       </c>
       <c r="E48" s="3">
-        <v>189300</v>
+        <v>189400</v>
       </c>
       <c r="F48" s="3">
-        <v>186300</v>
+        <v>187400</v>
       </c>
       <c r="G48" s="3">
-        <v>194800</v>
+        <v>184500</v>
       </c>
       <c r="H48" s="3">
-        <v>128000</v>
+        <v>192900</v>
       </c>
       <c r="I48" s="3">
-        <v>43900</v>
+        <v>126700</v>
       </c>
       <c r="J48" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K48" s="3">
         <v>38700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>34100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>708600</v>
+        <v>733100</v>
       </c>
       <c r="E49" s="3">
-        <v>397700</v>
+        <v>701600</v>
       </c>
       <c r="F49" s="3">
-        <v>400800</v>
+        <v>393800</v>
       </c>
       <c r="G49" s="3">
-        <v>410700</v>
+        <v>396800</v>
       </c>
       <c r="H49" s="3">
-        <v>266900</v>
+        <v>406700</v>
       </c>
       <c r="I49" s="3">
-        <v>269200</v>
+        <v>264200</v>
       </c>
       <c r="J49" s="3">
+        <v>266600</v>
+      </c>
+      <c r="K49" s="3">
         <v>272800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>287400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>249000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,43 +2211,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12300</v>
+        <v>14100</v>
       </c>
       <c r="E52" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F52" s="3">
         <v>6000</v>
       </c>
-      <c r="F52" s="3">
-        <v>18500</v>
-      </c>
       <c r="G52" s="3">
-        <v>16200</v>
+        <v>18300</v>
       </c>
       <c r="H52" s="3">
+        <v>16000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>9500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="L52" s="3">
+        <v>11000</v>
+      </c>
+      <c r="M52" s="3">
         <v>9600</v>
       </c>
-      <c r="I52" s="3">
-        <v>11100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>9300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>11000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>9600</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1166500</v>
+        <v>1247100</v>
       </c>
       <c r="E54" s="3">
-        <v>975300</v>
+        <v>1155000</v>
       </c>
       <c r="F54" s="3">
-        <v>973300</v>
+        <v>965700</v>
       </c>
       <c r="G54" s="3">
-        <v>959800</v>
+        <v>963700</v>
       </c>
       <c r="H54" s="3">
-        <v>736200</v>
+        <v>950400</v>
       </c>
       <c r="I54" s="3">
-        <v>528400</v>
+        <v>729000</v>
       </c>
       <c r="J54" s="3">
+        <v>523200</v>
+      </c>
+      <c r="K54" s="3">
         <v>494500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>540700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>489200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,63 +2359,67 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>64100</v>
+        <v>66400</v>
       </c>
       <c r="E57" s="3">
-        <v>67500</v>
+        <v>63500</v>
       </c>
       <c r="F57" s="3">
-        <v>55000</v>
+        <v>66900</v>
       </c>
       <c r="G57" s="3">
-        <v>51800</v>
+        <v>54500</v>
       </c>
       <c r="H57" s="3">
-        <v>46800</v>
+        <v>51300</v>
       </c>
       <c r="I57" s="3">
-        <v>49400</v>
+        <v>46400</v>
       </c>
       <c r="J57" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K57" s="3">
         <v>39400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>59700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>35100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>151900</v>
+        <v>156300</v>
       </c>
       <c r="E58" s="3">
-        <v>9600</v>
+        <v>150400</v>
       </c>
       <c r="F58" s="3">
-        <v>8400</v>
+        <v>9500</v>
       </c>
       <c r="G58" s="3">
-        <v>134500</v>
+        <v>8300</v>
       </c>
       <c r="H58" s="3">
-        <v>127600</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>133200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>126400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2299,98 +2433,107 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>221400</v>
+        <v>238700</v>
       </c>
       <c r="E60" s="3">
-        <v>79100</v>
+        <v>219300</v>
       </c>
       <c r="F60" s="3">
-        <v>65200</v>
+        <v>78400</v>
       </c>
       <c r="G60" s="3">
-        <v>188800</v>
+        <v>64500</v>
       </c>
       <c r="H60" s="3">
-        <v>175900</v>
+        <v>186900</v>
       </c>
       <c r="I60" s="3">
-        <v>53600</v>
+        <v>174200</v>
       </c>
       <c r="J60" s="3">
+        <v>53100</v>
+      </c>
+      <c r="K60" s="3">
         <v>43100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>63900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>41700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>119800</v>
+        <v>113000</v>
       </c>
       <c r="E61" s="3">
-        <v>121100</v>
+        <v>118700</v>
       </c>
       <c r="F61" s="3">
-        <v>130000</v>
+        <v>119900</v>
       </c>
       <c r="G61" s="3">
-        <v>142500</v>
+        <v>128700</v>
       </c>
       <c r="H61" s="3">
-        <v>79800</v>
+        <v>141100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>79100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2404,43 +2547,49 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>49100</v>
+        <v>43100</v>
       </c>
       <c r="E62" s="3">
-        <v>24200</v>
+        <v>48600</v>
       </c>
       <c r="F62" s="3">
-        <v>33200</v>
+        <v>24000</v>
       </c>
       <c r="G62" s="3">
-        <v>33900</v>
+        <v>32900</v>
       </c>
       <c r="H62" s="3">
+        <v>33600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>19200</v>
+      </c>
+      <c r="J62" s="3">
         <v>19400</v>
       </c>
-      <c r="I62" s="3">
-        <v>19600</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>390400</v>
+        <v>394800</v>
       </c>
       <c r="E66" s="3">
-        <v>224500</v>
+        <v>386500</v>
       </c>
       <c r="F66" s="3">
-        <v>228400</v>
+        <v>222300</v>
       </c>
       <c r="G66" s="3">
-        <v>365300</v>
+        <v>226200</v>
       </c>
       <c r="H66" s="3">
-        <v>275100</v>
+        <v>361700</v>
       </c>
       <c r="I66" s="3">
-        <v>73200</v>
+        <v>272400</v>
       </c>
       <c r="J66" s="3">
+        <v>72500</v>
+      </c>
+      <c r="K66" s="3">
         <v>60000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>82300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>62000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2829,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>423700</v>
+        <v>436900</v>
       </c>
       <c r="E72" s="3">
-        <v>415000</v>
+        <v>419600</v>
       </c>
       <c r="F72" s="3">
-        <v>403300</v>
+        <v>410900</v>
       </c>
       <c r="G72" s="3">
-        <v>383600</v>
+        <v>399300</v>
       </c>
       <c r="H72" s="3">
-        <v>399100</v>
+        <v>379900</v>
       </c>
       <c r="I72" s="3">
-        <v>388200</v>
+        <v>395200</v>
       </c>
       <c r="J72" s="3">
+        <v>384400</v>
+      </c>
+      <c r="K72" s="3">
         <v>371300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>394300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>368600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>776100</v>
+        <v>852200</v>
       </c>
       <c r="E76" s="3">
-        <v>750800</v>
+        <v>768500</v>
       </c>
       <c r="F76" s="3">
-        <v>744900</v>
+        <v>743400</v>
       </c>
       <c r="G76" s="3">
-        <v>594500</v>
+        <v>737600</v>
       </c>
       <c r="H76" s="3">
-        <v>461100</v>
+        <v>588700</v>
       </c>
       <c r="I76" s="3">
-        <v>455200</v>
+        <v>456600</v>
       </c>
       <c r="J76" s="3">
+        <v>450700</v>
+      </c>
+      <c r="K76" s="3">
         <v>434500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>458500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>427100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3133,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3400</v>
       </c>
-      <c r="F81" s="3">
-        <v>15700</v>
-      </c>
       <c r="G81" s="3">
-        <v>-16100</v>
+        <v>15600</v>
       </c>
       <c r="H81" s="3">
-        <v>30900</v>
+        <v>-15900</v>
       </c>
       <c r="I81" s="3">
-        <v>20500</v>
+        <v>30600</v>
       </c>
       <c r="J81" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K81" s="3">
         <v>32800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>43000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,43 +3232,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25600</v>
+        <v>29800</v>
       </c>
       <c r="E83" s="3">
-        <v>22900</v>
+        <v>25300</v>
       </c>
       <c r="F83" s="3">
-        <v>18900</v>
+        <v>22700</v>
       </c>
       <c r="G83" s="3">
-        <v>19800</v>
+        <v>18700</v>
       </c>
       <c r="H83" s="3">
-        <v>15600</v>
+        <v>19600</v>
       </c>
       <c r="I83" s="3">
-        <v>10100</v>
+        <v>15500</v>
       </c>
       <c r="J83" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K83" s="3">
         <v>8200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3458,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>28700</v>
+        <v>34900</v>
       </c>
       <c r="E89" s="3">
-        <v>45000</v>
+        <v>28500</v>
       </c>
       <c r="F89" s="3">
-        <v>40100</v>
+        <v>44500</v>
       </c>
       <c r="G89" s="3">
-        <v>27700</v>
+        <v>39700</v>
       </c>
       <c r="H89" s="3">
-        <v>46800</v>
+        <v>27400</v>
       </c>
       <c r="I89" s="3">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="J89" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K89" s="3">
         <v>43100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>39600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>43800</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,43 +3514,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17200</v>
+        <v>-5300</v>
       </c>
       <c r="E91" s="3">
-        <v>-23700</v>
+        <v>-17000</v>
       </c>
       <c r="F91" s="3">
-        <v>-13600</v>
+        <v>-23400</v>
       </c>
       <c r="G91" s="3">
-        <v>-5700</v>
+        <v>-13500</v>
       </c>
       <c r="H91" s="3">
-        <v>-9300</v>
+        <v>-5600</v>
       </c>
       <c r="I91" s="3">
         <v>-9300</v>
       </c>
       <c r="J91" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-11600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,43 +3626,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-316900</v>
+        <v>-16300</v>
       </c>
       <c r="E94" s="3">
-        <v>-27200</v>
+        <v>-313800</v>
       </c>
       <c r="F94" s="3">
-        <v>-27000</v>
+        <v>-26900</v>
       </c>
       <c r="G94" s="3">
-        <v>-152900</v>
+        <v>-26700</v>
       </c>
       <c r="H94" s="3">
-        <v>-22200</v>
+        <v>-151400</v>
       </c>
       <c r="I94" s="3">
-        <v>-27100</v>
+        <v>-22000</v>
       </c>
       <c r="J94" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-31900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,8 +3682,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3464,28 +3698,31 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-8600</v>
       </c>
-      <c r="H96" s="3">
-        <v>-20900</v>
-      </c>
       <c r="I96" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="J96" s="3">
         <v>-8600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-20800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-9100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-20100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,109 +3832,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>139000</v>
+        <v>-8600</v>
       </c>
       <c r="E100" s="3">
-        <v>-7200</v>
+        <v>137600</v>
       </c>
       <c r="F100" s="3">
-        <v>17700</v>
+        <v>-7100</v>
       </c>
       <c r="G100" s="3">
-        <v>119500</v>
+        <v>17600</v>
       </c>
       <c r="H100" s="3">
-        <v>98900</v>
+        <v>118300</v>
       </c>
       <c r="I100" s="3">
-        <v>-8900</v>
+        <v>97900</v>
       </c>
       <c r="J100" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-20300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E101" s="3">
         <v>1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-147600</v>
+        <v>17000</v>
       </c>
       <c r="E102" s="3">
-        <v>9500</v>
+        <v>-146200</v>
       </c>
       <c r="F102" s="3">
-        <v>29100</v>
+        <v>9400</v>
       </c>
       <c r="G102" s="3">
-        <v>-3100</v>
+        <v>28800</v>
       </c>
       <c r="H102" s="3">
-        <v>121600</v>
+        <v>-3000</v>
       </c>
       <c r="I102" s="3">
+        <v>120400</v>
+      </c>
+      <c r="J102" s="3">
         <v>4600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9100</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABCM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABCM_QTR_FIN.xlsx
@@ -732,25 +732,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>216900</v>
+        <v>220900</v>
       </c>
       <c r="E8" s="3">
-        <v>193500</v>
+        <v>197000</v>
       </c>
       <c r="F8" s="3">
+        <v>179100</v>
+      </c>
+      <c r="G8" s="3">
         <v>175900</v>
       </c>
-      <c r="G8" s="3">
-        <v>172800</v>
-      </c>
       <c r="H8" s="3">
-        <v>142700</v>
+        <v>145200</v>
       </c>
       <c r="I8" s="3">
-        <v>161900</v>
+        <v>164800</v>
       </c>
       <c r="J8" s="3">
-        <v>158400</v>
+        <v>161200</v>
       </c>
       <c r="K8" s="3">
         <v>147500</v>
@@ -770,25 +770,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>56100</v>
+        <v>57100</v>
       </c>
       <c r="E9" s="3">
-        <v>56000</v>
+        <v>57000</v>
       </c>
       <c r="F9" s="3">
-        <v>50400</v>
+        <v>51300</v>
       </c>
       <c r="G9" s="3">
-        <v>50200</v>
+        <v>51200</v>
       </c>
       <c r="H9" s="3">
-        <v>44400</v>
+        <v>45200</v>
       </c>
       <c r="I9" s="3">
-        <v>49100</v>
+        <v>50000</v>
       </c>
       <c r="J9" s="3">
-        <v>46400</v>
+        <v>47200</v>
       </c>
       <c r="K9" s="3">
         <v>43900</v>
@@ -808,25 +808,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>160800</v>
+        <v>163700</v>
       </c>
       <c r="E10" s="3">
-        <v>137500</v>
+        <v>140000</v>
       </c>
       <c r="F10" s="3">
-        <v>125600</v>
+        <v>127800</v>
       </c>
       <c r="G10" s="3">
-        <v>122500</v>
+        <v>124700</v>
       </c>
       <c r="H10" s="3">
-        <v>98300</v>
+        <v>100100</v>
       </c>
       <c r="I10" s="3">
-        <v>112800</v>
+        <v>114800</v>
       </c>
       <c r="J10" s="3">
-        <v>112000</v>
+        <v>114000</v>
       </c>
       <c r="K10" s="3">
         <v>103600</v>
@@ -862,25 +862,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>13500</v>
+        <v>13700</v>
       </c>
       <c r="E12" s="3">
-        <v>13800</v>
+        <v>14100</v>
       </c>
       <c r="F12" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="G12" s="3">
-        <v>12300</v>
+        <v>12500</v>
       </c>
       <c r="H12" s="3">
-        <v>12400</v>
+        <v>12600</v>
       </c>
       <c r="I12" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="J12" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="K12" s="3">
         <v>7000</v>
@@ -938,25 +938,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="E14" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="F14" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="G14" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="H14" s="3">
-        <v>25800</v>
+        <v>26200</v>
       </c>
       <c r="I14" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J14" s="3">
-        <v>19800</v>
+        <v>20200</v>
       </c>
       <c r="K14" s="3">
         <v>4800</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="E15" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="F15" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="G15" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="H15" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="I15" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J15" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="K15" s="3">
         <v>3900</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>206000</v>
+        <v>209800</v>
       </c>
       <c r="E17" s="3">
-        <v>197900</v>
+        <v>201500</v>
       </c>
       <c r="F17" s="3">
-        <v>163900</v>
+        <v>166800</v>
       </c>
       <c r="G17" s="3">
-        <v>151800</v>
+        <v>154500</v>
       </c>
       <c r="H17" s="3">
-        <v>161500</v>
+        <v>164400</v>
       </c>
       <c r="I17" s="3">
-        <v>130700</v>
+        <v>133100</v>
       </c>
       <c r="J17" s="3">
-        <v>131800</v>
+        <v>134200</v>
       </c>
       <c r="K17" s="3">
         <v>108000</v>
@@ -1065,25 +1065,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="E18" s="3">
         <v>-4500</v>
       </c>
       <c r="F18" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="G18" s="3">
-        <v>21000</v>
+        <v>21300</v>
       </c>
       <c r="H18" s="3">
-        <v>-18900</v>
+        <v>-19200</v>
       </c>
       <c r="I18" s="3">
-        <v>31200</v>
+        <v>31700</v>
       </c>
       <c r="J18" s="3">
-        <v>26600</v>
+        <v>27100</v>
       </c>
       <c r="K18" s="3">
         <v>39500</v>
@@ -1119,10 +1119,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="E20" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -1157,25 +1157,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>38400</v>
+        <v>39100</v>
       </c>
       <c r="E21" s="3">
-        <v>19300</v>
+        <v>19700</v>
       </c>
       <c r="F21" s="3">
-        <v>35000</v>
+        <v>35700</v>
       </c>
       <c r="G21" s="3">
-        <v>39900</v>
+        <v>40700</v>
       </c>
       <c r="H21" s="3">
         <v>-600</v>
       </c>
       <c r="I21" s="3">
-        <v>47200</v>
+        <v>48100</v>
       </c>
       <c r="J21" s="3">
-        <v>36500</v>
+        <v>37200</v>
       </c>
       <c r="K21" s="3">
         <v>48000</v>
@@ -1201,10 +1201,10 @@
         <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G22" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H22" s="3">
         <v>500</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="E23" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="F23" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="G23" s="3">
-        <v>19000</v>
+        <v>19300</v>
       </c>
       <c r="H23" s="3">
-        <v>-20600</v>
+        <v>-21000</v>
       </c>
       <c r="I23" s="3">
-        <v>30500</v>
+        <v>31000</v>
       </c>
       <c r="J23" s="3">
-        <v>26600</v>
+        <v>27100</v>
       </c>
       <c r="K23" s="3">
         <v>39900</v>
@@ -1274,22 +1274,22 @@
         <v>1900</v>
       </c>
       <c r="E24" s="3">
-        <v>-7100</v>
+        <v>-7300</v>
       </c>
       <c r="F24" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="G24" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H24" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
       </c>
       <c r="J24" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="K24" s="3">
         <v>7100</v>
@@ -1347,25 +1347,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="E26" s="3">
         <v>1200</v>
       </c>
       <c r="F26" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G26" s="3">
-        <v>15600</v>
+        <v>15900</v>
       </c>
       <c r="H26" s="3">
-        <v>-15900</v>
+        <v>-16200</v>
       </c>
       <c r="I26" s="3">
-        <v>30600</v>
+        <v>31100</v>
       </c>
       <c r="J26" s="3">
-        <v>20500</v>
+        <v>20900</v>
       </c>
       <c r="K26" s="3">
         <v>32800</v>
@@ -1385,25 +1385,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="E27" s="3">
         <v>1200</v>
       </c>
       <c r="F27" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G27" s="3">
-        <v>15600</v>
+        <v>15900</v>
       </c>
       <c r="H27" s="3">
-        <v>-15900</v>
+        <v>-16200</v>
       </c>
       <c r="I27" s="3">
-        <v>30600</v>
+        <v>31100</v>
       </c>
       <c r="J27" s="3">
-        <v>20500</v>
+        <v>20900</v>
       </c>
       <c r="K27" s="3">
         <v>32800</v>
@@ -1575,10 +1575,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E32" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
@@ -1613,25 +1613,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="E33" s="3">
         <v>1200</v>
       </c>
       <c r="F33" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G33" s="3">
-        <v>15600</v>
+        <v>15900</v>
       </c>
       <c r="H33" s="3">
-        <v>-15900</v>
+        <v>-16200</v>
       </c>
       <c r="I33" s="3">
-        <v>30600</v>
+        <v>31100</v>
       </c>
       <c r="J33" s="3">
-        <v>20300</v>
+        <v>20600</v>
       </c>
       <c r="K33" s="3">
         <v>32800</v>
@@ -1689,25 +1689,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="E35" s="3">
         <v>1200</v>
       </c>
       <c r="F35" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G35" s="3">
-        <v>15600</v>
+        <v>15900</v>
       </c>
       <c r="H35" s="3">
-        <v>-15900</v>
+        <v>-16200</v>
       </c>
       <c r="I35" s="3">
-        <v>30600</v>
+        <v>31100</v>
       </c>
       <c r="J35" s="3">
-        <v>20300</v>
+        <v>20600</v>
       </c>
       <c r="K35" s="3">
         <v>32800</v>
@@ -1802,25 +1802,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>128400</v>
+        <v>130700</v>
       </c>
       <c r="E41" s="3">
-        <v>111400</v>
+        <v>113400</v>
       </c>
       <c r="F41" s="3">
-        <v>257600</v>
+        <v>262200</v>
       </c>
       <c r="G41" s="3">
-        <v>248200</v>
+        <v>252700</v>
       </c>
       <c r="H41" s="3">
-        <v>219400</v>
+        <v>223400</v>
       </c>
       <c r="I41" s="3">
-        <v>222400</v>
+        <v>226500</v>
       </c>
       <c r="J41" s="3">
-        <v>102000</v>
+        <v>103900</v>
       </c>
       <c r="K41" s="3">
         <v>98400</v>
@@ -1878,25 +1878,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>84500</v>
+        <v>86000</v>
       </c>
       <c r="E43" s="3">
-        <v>67600</v>
+        <v>68800</v>
       </c>
       <c r="F43" s="3">
-        <v>62400</v>
+        <v>63600</v>
       </c>
       <c r="G43" s="3">
-        <v>60800</v>
+        <v>61900</v>
       </c>
       <c r="H43" s="3">
-        <v>59500</v>
+        <v>60600</v>
       </c>
       <c r="I43" s="3">
-        <v>53800</v>
+        <v>54700</v>
       </c>
       <c r="J43" s="3">
-        <v>56800</v>
+        <v>57800</v>
       </c>
       <c r="K43" s="3">
         <v>36300</v>
@@ -1916,25 +1916,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>67300</v>
+        <v>68600</v>
       </c>
       <c r="E44" s="3">
-        <v>68200</v>
+        <v>69400</v>
       </c>
       <c r="F44" s="3">
-        <v>53800</v>
+        <v>54700</v>
       </c>
       <c r="G44" s="3">
-        <v>50800</v>
+        <v>51800</v>
       </c>
       <c r="H44" s="3">
-        <v>47700</v>
+        <v>48500</v>
       </c>
       <c r="I44" s="3">
-        <v>46300</v>
+        <v>47100</v>
       </c>
       <c r="J44" s="3">
-        <v>42200</v>
+        <v>42900</v>
       </c>
       <c r="K44" s="3">
         <v>38000</v>
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21800</v>
+        <v>22200</v>
       </c>
       <c r="E45" s="3">
         <v>600</v>
@@ -1992,25 +1992,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>302000</v>
+        <v>307400</v>
       </c>
       <c r="E46" s="3">
-        <v>247700</v>
+        <v>252200</v>
       </c>
       <c r="F46" s="3">
-        <v>374500</v>
+        <v>381200</v>
       </c>
       <c r="G46" s="3">
-        <v>360200</v>
+        <v>366700</v>
       </c>
       <c r="H46" s="3">
-        <v>326600</v>
+        <v>332500</v>
       </c>
       <c r="I46" s="3">
-        <v>324900</v>
+        <v>330800</v>
       </c>
       <c r="J46" s="3">
-        <v>201200</v>
+        <v>204900</v>
       </c>
       <c r="K46" s="3">
         <v>172800</v>
@@ -2033,22 +2033,22 @@
         <v>3900</v>
       </c>
       <c r="E47" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G47" s="3">
         <v>4100</v>
       </c>
-      <c r="F47" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>4000</v>
-      </c>
       <c r="H47" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="I47" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J47" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K47" s="3">
         <v>800</v>
@@ -2068,25 +2068,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>194100</v>
+        <v>197600</v>
       </c>
       <c r="E48" s="3">
-        <v>189400</v>
+        <v>192800</v>
       </c>
       <c r="F48" s="3">
-        <v>187400</v>
+        <v>190800</v>
       </c>
       <c r="G48" s="3">
-        <v>184500</v>
+        <v>187800</v>
       </c>
       <c r="H48" s="3">
-        <v>192900</v>
+        <v>196400</v>
       </c>
       <c r="I48" s="3">
-        <v>126700</v>
+        <v>129000</v>
       </c>
       <c r="J48" s="3">
-        <v>43500</v>
+        <v>44200</v>
       </c>
       <c r="K48" s="3">
         <v>38700</v>
@@ -2106,25 +2106,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>733100</v>
+        <v>746400</v>
       </c>
       <c r="E49" s="3">
-        <v>701600</v>
+        <v>714300</v>
       </c>
       <c r="F49" s="3">
-        <v>393800</v>
+        <v>400900</v>
       </c>
       <c r="G49" s="3">
-        <v>396800</v>
+        <v>404000</v>
       </c>
       <c r="H49" s="3">
-        <v>406700</v>
+        <v>414000</v>
       </c>
       <c r="I49" s="3">
-        <v>264200</v>
+        <v>269000</v>
       </c>
       <c r="J49" s="3">
-        <v>266600</v>
+        <v>271400</v>
       </c>
       <c r="K49" s="3">
         <v>272800</v>
@@ -2220,25 +2220,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="E52" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="F52" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="G52" s="3">
-        <v>18300</v>
+        <v>18600</v>
       </c>
       <c r="H52" s="3">
-        <v>16000</v>
+        <v>16300</v>
       </c>
       <c r="I52" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="J52" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="K52" s="3">
         <v>9300</v>
@@ -2296,25 +2296,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1247100</v>
+        <v>1269700</v>
       </c>
       <c r="E54" s="3">
-        <v>1155000</v>
+        <v>1175900</v>
       </c>
       <c r="F54" s="3">
-        <v>965700</v>
+        <v>983200</v>
       </c>
       <c r="G54" s="3">
-        <v>963700</v>
+        <v>981200</v>
       </c>
       <c r="H54" s="3">
-        <v>950400</v>
+        <v>967600</v>
       </c>
       <c r="I54" s="3">
-        <v>729000</v>
+        <v>742200</v>
       </c>
       <c r="J54" s="3">
-        <v>523200</v>
+        <v>532700</v>
       </c>
       <c r="K54" s="3">
         <v>494500</v>
@@ -2366,25 +2366,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>66400</v>
+        <v>67600</v>
       </c>
       <c r="E57" s="3">
-        <v>63500</v>
+        <v>64600</v>
       </c>
       <c r="F57" s="3">
-        <v>66900</v>
+        <v>68100</v>
       </c>
       <c r="G57" s="3">
-        <v>54500</v>
+        <v>55500</v>
       </c>
       <c r="H57" s="3">
-        <v>51300</v>
+        <v>52200</v>
       </c>
       <c r="I57" s="3">
-        <v>46400</v>
+        <v>47200</v>
       </c>
       <c r="J57" s="3">
-        <v>49000</v>
+        <v>49800</v>
       </c>
       <c r="K57" s="3">
         <v>39400</v>
@@ -2404,22 +2404,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>156300</v>
+        <v>159100</v>
       </c>
       <c r="E58" s="3">
-        <v>150400</v>
+        <v>153100</v>
       </c>
       <c r="F58" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="G58" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="H58" s="3">
-        <v>133200</v>
+        <v>135600</v>
       </c>
       <c r="I58" s="3">
-        <v>126400</v>
+        <v>128700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2442,10 +2442,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16000</v>
+        <v>16300</v>
       </c>
       <c r="E59" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="F59" s="3">
         <v>2000</v>
@@ -2460,7 +2460,7 @@
         <v>1400</v>
       </c>
       <c r="J59" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K59" s="3">
         <v>3700</v>
@@ -2480,25 +2480,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>238700</v>
+        <v>243000</v>
       </c>
       <c r="E60" s="3">
-        <v>219300</v>
+        <v>223200</v>
       </c>
       <c r="F60" s="3">
-        <v>78400</v>
+        <v>79800</v>
       </c>
       <c r="G60" s="3">
-        <v>64500</v>
+        <v>65700</v>
       </c>
       <c r="H60" s="3">
-        <v>186900</v>
+        <v>190300</v>
       </c>
       <c r="I60" s="3">
-        <v>174200</v>
+        <v>177300</v>
       </c>
       <c r="J60" s="3">
-        <v>53100</v>
+        <v>54000</v>
       </c>
       <c r="K60" s="3">
         <v>43100</v>
@@ -2518,22 +2518,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>113000</v>
+        <v>115100</v>
       </c>
       <c r="E61" s="3">
-        <v>118700</v>
+        <v>120800</v>
       </c>
       <c r="F61" s="3">
-        <v>119900</v>
+        <v>122100</v>
       </c>
       <c r="G61" s="3">
-        <v>128700</v>
+        <v>131100</v>
       </c>
       <c r="H61" s="3">
-        <v>141100</v>
+        <v>143700</v>
       </c>
       <c r="I61" s="3">
-        <v>79100</v>
+        <v>80500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2556,25 +2556,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>43100</v>
+        <v>43900</v>
       </c>
       <c r="E62" s="3">
-        <v>48600</v>
+        <v>49500</v>
       </c>
       <c r="F62" s="3">
-        <v>24000</v>
+        <v>24400</v>
       </c>
       <c r="G62" s="3">
-        <v>32900</v>
+        <v>33500</v>
       </c>
       <c r="H62" s="3">
-        <v>33600</v>
+        <v>34200</v>
       </c>
       <c r="I62" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="J62" s="3">
-        <v>19400</v>
+        <v>19800</v>
       </c>
       <c r="K62" s="3">
         <v>16900</v>
@@ -2708,25 +2708,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>394800</v>
+        <v>402000</v>
       </c>
       <c r="E66" s="3">
-        <v>386500</v>
+        <v>393500</v>
       </c>
       <c r="F66" s="3">
-        <v>222300</v>
+        <v>226300</v>
       </c>
       <c r="G66" s="3">
-        <v>226200</v>
+        <v>230300</v>
       </c>
       <c r="H66" s="3">
-        <v>361700</v>
+        <v>368200</v>
       </c>
       <c r="I66" s="3">
-        <v>272400</v>
+        <v>277400</v>
       </c>
       <c r="J66" s="3">
-        <v>72500</v>
+        <v>73800</v>
       </c>
       <c r="K66" s="3">
         <v>60000</v>
@@ -2914,25 +2914,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>436900</v>
+        <v>444800</v>
       </c>
       <c r="E72" s="3">
-        <v>419600</v>
+        <v>427200</v>
       </c>
       <c r="F72" s="3">
-        <v>410900</v>
+        <v>418300</v>
       </c>
       <c r="G72" s="3">
-        <v>399300</v>
+        <v>406500</v>
       </c>
       <c r="H72" s="3">
-        <v>379900</v>
+        <v>386700</v>
       </c>
       <c r="I72" s="3">
-        <v>395200</v>
+        <v>402400</v>
       </c>
       <c r="J72" s="3">
-        <v>384400</v>
+        <v>391400</v>
       </c>
       <c r="K72" s="3">
         <v>371300</v>
@@ -3066,25 +3066,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>852200</v>
+        <v>867700</v>
       </c>
       <c r="E76" s="3">
-        <v>768500</v>
+        <v>782400</v>
       </c>
       <c r="F76" s="3">
-        <v>743400</v>
+        <v>756900</v>
       </c>
       <c r="G76" s="3">
-        <v>737600</v>
+        <v>750900</v>
       </c>
       <c r="H76" s="3">
-        <v>588700</v>
+        <v>599400</v>
       </c>
       <c r="I76" s="3">
-        <v>456600</v>
+        <v>464800</v>
       </c>
       <c r="J76" s="3">
-        <v>450700</v>
+        <v>458900</v>
       </c>
       <c r="K76" s="3">
         <v>434500</v>
@@ -3185,25 +3185,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="E81" s="3">
         <v>1200</v>
       </c>
       <c r="F81" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G81" s="3">
-        <v>15600</v>
+        <v>15900</v>
       </c>
       <c r="H81" s="3">
-        <v>-15900</v>
+        <v>-16200</v>
       </c>
       <c r="I81" s="3">
-        <v>30600</v>
+        <v>31100</v>
       </c>
       <c r="J81" s="3">
-        <v>20300</v>
+        <v>20600</v>
       </c>
       <c r="K81" s="3">
         <v>32800</v>
@@ -3239,25 +3239,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>29800</v>
+        <v>30300</v>
       </c>
       <c r="E83" s="3">
-        <v>25300</v>
+        <v>25800</v>
       </c>
       <c r="F83" s="3">
-        <v>22700</v>
+        <v>23100</v>
       </c>
       <c r="G83" s="3">
-        <v>18700</v>
+        <v>19100</v>
       </c>
       <c r="H83" s="3">
-        <v>19600</v>
+        <v>19900</v>
       </c>
       <c r="I83" s="3">
-        <v>15500</v>
+        <v>15700</v>
       </c>
       <c r="J83" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="K83" s="3">
         <v>8200</v>
@@ -3467,25 +3467,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>34900</v>
+        <v>35500</v>
       </c>
       <c r="E89" s="3">
-        <v>28500</v>
+        <v>29000</v>
       </c>
       <c r="F89" s="3">
-        <v>44500</v>
+        <v>45300</v>
       </c>
       <c r="G89" s="3">
-        <v>39700</v>
+        <v>40400</v>
       </c>
       <c r="H89" s="3">
-        <v>27400</v>
+        <v>27900</v>
       </c>
       <c r="I89" s="3">
-        <v>46400</v>
+        <v>47200</v>
       </c>
       <c r="J89" s="3">
-        <v>39600</v>
+        <v>40300</v>
       </c>
       <c r="K89" s="3">
         <v>43100</v>
@@ -3521,25 +3521,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="E91" s="3">
-        <v>-17000</v>
+        <v>-17300</v>
       </c>
       <c r="F91" s="3">
-        <v>-23400</v>
+        <v>-23900</v>
       </c>
       <c r="G91" s="3">
-        <v>-13500</v>
+        <v>-13700</v>
       </c>
       <c r="H91" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="I91" s="3">
-        <v>-9300</v>
+        <v>-9400</v>
       </c>
       <c r="J91" s="3">
-        <v>-9300</v>
+        <v>-9400</v>
       </c>
       <c r="K91" s="3">
         <v>-11600</v>
@@ -3635,25 +3635,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16300</v>
+        <v>-16600</v>
       </c>
       <c r="E94" s="3">
-        <v>-313800</v>
+        <v>-319500</v>
       </c>
       <c r="F94" s="3">
-        <v>-26900</v>
+        <v>-27400</v>
       </c>
       <c r="G94" s="3">
-        <v>-26700</v>
+        <v>-27200</v>
       </c>
       <c r="H94" s="3">
-        <v>-151400</v>
+        <v>-154200</v>
       </c>
       <c r="I94" s="3">
-        <v>-22000</v>
+        <v>-22400</v>
       </c>
       <c r="J94" s="3">
-        <v>-26800</v>
+        <v>-27300</v>
       </c>
       <c r="K94" s="3">
         <v>-31900</v>
@@ -3701,13 +3701,13 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="I96" s="3">
-        <v>-20700</v>
+        <v>-21100</v>
       </c>
       <c r="J96" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="K96" s="3">
         <v>-20800</v>
@@ -3841,25 +3841,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="E100" s="3">
-        <v>137600</v>
+        <v>140100</v>
       </c>
       <c r="F100" s="3">
-        <v>-7100</v>
+        <v>-7300</v>
       </c>
       <c r="G100" s="3">
-        <v>17600</v>
+        <v>17900</v>
       </c>
       <c r="H100" s="3">
-        <v>118300</v>
+        <v>120400</v>
       </c>
       <c r="I100" s="3">
-        <v>97900</v>
+        <v>99700</v>
       </c>
       <c r="J100" s="3">
-        <v>-8800</v>
+        <v>-8900</v>
       </c>
       <c r="K100" s="3">
         <v>-20300</v>
@@ -3879,10 +3879,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="E101" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F101" s="3">
         <v>-1100</v>
@@ -3917,25 +3917,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>17000</v>
+        <v>17300</v>
       </c>
       <c r="E102" s="3">
-        <v>-146200</v>
+        <v>-148800</v>
       </c>
       <c r="F102" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="G102" s="3">
-        <v>28800</v>
+        <v>29300</v>
       </c>
       <c r="H102" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="I102" s="3">
-        <v>120400</v>
+        <v>122600</v>
       </c>
       <c r="J102" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K102" s="3">
         <v>-8300</v>

--- a/AAII_Financials/Quarterly/ABCM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABCM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>ABCM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>220900</v>
+        <v>219000</v>
       </c>
       <c r="E8" s="3">
-        <v>197000</v>
+        <v>229800</v>
       </c>
       <c r="F8" s="3">
-        <v>179100</v>
+        <v>205000</v>
       </c>
       <c r="G8" s="3">
-        <v>175900</v>
+        <v>186400</v>
       </c>
       <c r="H8" s="3">
-        <v>145200</v>
+        <v>183000</v>
       </c>
       <c r="I8" s="3">
-        <v>164800</v>
+        <v>151100</v>
       </c>
       <c r="J8" s="3">
+        <v>171500</v>
+      </c>
+      <c r="K8" s="3">
         <v>161200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>147500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>157300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>149700</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>57100</v>
+        <v>53700</v>
       </c>
       <c r="E9" s="3">
-        <v>57000</v>
+        <v>59400</v>
       </c>
       <c r="F9" s="3">
-        <v>51300</v>
+        <v>59300</v>
       </c>
       <c r="G9" s="3">
-        <v>51200</v>
+        <v>53400</v>
       </c>
       <c r="H9" s="3">
-        <v>45200</v>
+        <v>53200</v>
       </c>
       <c r="I9" s="3">
-        <v>50000</v>
+        <v>47000</v>
       </c>
       <c r="J9" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K9" s="3">
         <v>47200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>43900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>47200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>45300</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>163700</v>
+        <v>165300</v>
       </c>
       <c r="E10" s="3">
-        <v>140000</v>
+        <v>170400</v>
       </c>
       <c r="F10" s="3">
-        <v>127800</v>
+        <v>145700</v>
       </c>
       <c r="G10" s="3">
-        <v>124700</v>
+        <v>133000</v>
       </c>
       <c r="H10" s="3">
-        <v>100100</v>
+        <v>129800</v>
       </c>
       <c r="I10" s="3">
-        <v>114800</v>
+        <v>104100</v>
       </c>
       <c r="J10" s="3">
+        <v>119500</v>
+      </c>
+      <c r="K10" s="3">
         <v>114000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>103600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>110200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>104500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -856,46 +869,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>14600</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>13200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="L12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="N12" s="3">
         <v>13700</v>
       </c>
-      <c r="E12" s="3">
-        <v>14100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>9700</v>
-      </c>
-      <c r="G12" s="3">
-        <v>12500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>12600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>8100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5700</v>
-      </c>
-      <c r="K12" s="3">
-        <v>7000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>7400</v>
-      </c>
-      <c r="M12" s="3">
-        <v>13700</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,84 +949,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10300</v>
+        <v>39600</v>
       </c>
       <c r="E14" s="3">
-        <v>19600</v>
+        <v>10700</v>
       </c>
       <c r="F14" s="3">
-        <v>6200</v>
+        <v>20300</v>
       </c>
       <c r="G14" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>27300</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K14" s="3">
+        <v>20200</v>
+      </c>
+      <c r="L14" s="3">
         <v>4800</v>
       </c>
-      <c r="H14" s="3">
-        <v>26200</v>
-      </c>
-      <c r="I14" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>20200</v>
-      </c>
-      <c r="K14" s="3">
-        <v>4800</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10700</v>
+        <v>9800</v>
       </c>
       <c r="E15" s="3">
-        <v>6100</v>
+        <v>11200</v>
       </c>
       <c r="F15" s="3">
-        <v>5100</v>
+        <v>6300</v>
       </c>
       <c r="G15" s="3">
-        <v>8700</v>
+        <v>5300</v>
       </c>
       <c r="H15" s="3">
-        <v>6200</v>
+        <v>9100</v>
       </c>
       <c r="I15" s="3">
-        <v>4100</v>
+        <v>6500</v>
       </c>
       <c r="J15" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K15" s="3">
         <v>3800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3900</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>209800</v>
+        <v>243100</v>
       </c>
       <c r="E17" s="3">
-        <v>201500</v>
+        <v>218300</v>
       </c>
       <c r="F17" s="3">
-        <v>166800</v>
+        <v>209700</v>
       </c>
       <c r="G17" s="3">
-        <v>154500</v>
+        <v>173600</v>
       </c>
       <c r="H17" s="3">
-        <v>164400</v>
+        <v>160800</v>
       </c>
       <c r="I17" s="3">
-        <v>133100</v>
+        <v>171100</v>
       </c>
       <c r="J17" s="3">
+        <v>138500</v>
+      </c>
+      <c r="K17" s="3">
         <v>134200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>108000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>110300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>106200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11100</v>
+        <v>-24100</v>
       </c>
       <c r="E18" s="3">
-        <v>-4500</v>
+        <v>11500</v>
       </c>
       <c r="F18" s="3">
-        <v>12300</v>
+        <v>-4700</v>
       </c>
       <c r="G18" s="3">
-        <v>21300</v>
+        <v>12800</v>
       </c>
       <c r="H18" s="3">
-        <v>-19200</v>
+        <v>22200</v>
       </c>
       <c r="I18" s="3">
-        <v>31700</v>
+        <v>-20000</v>
       </c>
       <c r="J18" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K18" s="3">
         <v>27100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>39500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>47100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>43500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,84 +1146,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2300</v>
+        <v>-4500</v>
       </c>
       <c r="E20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
       </c>
       <c r="H20" s="3">
-        <v>-1300</v>
+        <v>200</v>
       </c>
       <c r="I20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>39100</v>
+        <v>5600</v>
       </c>
       <c r="E21" s="3">
-        <v>19700</v>
+        <v>40700</v>
       </c>
       <c r="F21" s="3">
-        <v>35700</v>
+        <v>20500</v>
       </c>
       <c r="G21" s="3">
-        <v>40700</v>
+        <v>37100</v>
       </c>
       <c r="H21" s="3">
+        <v>42300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
-        <v>48100</v>
-      </c>
       <c r="J21" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K21" s="3">
         <v>37200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>48000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>55900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>52000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1200,20 +1240,20 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
         <v>1600</v>
       </c>
-      <c r="G22" s="3">
-        <v>2300</v>
-      </c>
       <c r="H22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>1400</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1227,84 +1267,93 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8800</v>
+        <v>-28500</v>
       </c>
       <c r="E23" s="3">
-        <v>-6100</v>
+        <v>9200</v>
       </c>
       <c r="F23" s="3">
-        <v>11000</v>
+        <v>-6300</v>
       </c>
       <c r="G23" s="3">
-        <v>19300</v>
+        <v>11400</v>
       </c>
       <c r="H23" s="3">
-        <v>-21000</v>
+        <v>20100</v>
       </c>
       <c r="I23" s="3">
-        <v>31000</v>
+        <v>-21800</v>
       </c>
       <c r="J23" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K23" s="3">
         <v>27100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>39900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>47300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>43700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1900</v>
+        <v>-10800</v>
       </c>
       <c r="E24" s="3">
-        <v>-7300</v>
+        <v>2000</v>
       </c>
       <c r="F24" s="3">
-        <v>7500</v>
+        <v>-7600</v>
       </c>
       <c r="G24" s="3">
-        <v>3500</v>
+        <v>7800</v>
       </c>
       <c r="H24" s="3">
-        <v>-4800</v>
+        <v>3600</v>
       </c>
       <c r="I24" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>8000</v>
       </c>
       <c r="M24" s="3">
         <v>8000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6900</v>
+        <v>-17700</v>
       </c>
       <c r="E26" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
-        <v>3500</v>
-      </c>
       <c r="G26" s="3">
-        <v>15900</v>
+        <v>3600</v>
       </c>
       <c r="H26" s="3">
-        <v>-16200</v>
+        <v>16500</v>
       </c>
       <c r="I26" s="3">
-        <v>31100</v>
+        <v>-16900</v>
       </c>
       <c r="J26" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K26" s="3">
         <v>20900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>32800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>39400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>35700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6900</v>
+        <v>-17700</v>
       </c>
       <c r="E27" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
-        <v>3500</v>
-      </c>
       <c r="G27" s="3">
-        <v>15900</v>
+        <v>3600</v>
       </c>
       <c r="H27" s="3">
-        <v>-16200</v>
+        <v>16500</v>
       </c>
       <c r="I27" s="3">
-        <v>31100</v>
+        <v>-16900</v>
       </c>
       <c r="J27" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K27" s="3">
         <v>20900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>32800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>39400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>35700</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1472,29 +1533,32 @@
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>7300</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2300</v>
+        <v>4500</v>
       </c>
       <c r="E32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F32" s="3">
         <v>1600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
       </c>
       <c r="H32" s="3">
-        <v>1300</v>
+        <v>-200</v>
       </c>
       <c r="I32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6900</v>
+        <v>-17700</v>
       </c>
       <c r="E33" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
-        <v>3500</v>
-      </c>
       <c r="G33" s="3">
-        <v>15900</v>
+        <v>3600</v>
       </c>
       <c r="H33" s="3">
-        <v>-16200</v>
+        <v>16500</v>
       </c>
       <c r="I33" s="3">
-        <v>31100</v>
+        <v>-16900</v>
       </c>
       <c r="J33" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K33" s="3">
         <v>20600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>32800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>39000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>43000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6900</v>
+        <v>-17700</v>
       </c>
       <c r="E35" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
-        <v>3500</v>
-      </c>
       <c r="G35" s="3">
-        <v>15900</v>
+        <v>3600</v>
       </c>
       <c r="H35" s="3">
-        <v>-16200</v>
+        <v>16500</v>
       </c>
       <c r="I35" s="3">
-        <v>31100</v>
+        <v>-16900</v>
       </c>
       <c r="J35" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K35" s="3">
         <v>20600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>32800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>39000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>43000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,46 +1882,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>130700</v>
+        <v>110400</v>
       </c>
       <c r="E41" s="3">
-        <v>113400</v>
+        <v>136000</v>
       </c>
       <c r="F41" s="3">
-        <v>262200</v>
+        <v>118000</v>
       </c>
       <c r="G41" s="3">
-        <v>252700</v>
+        <v>272900</v>
       </c>
       <c r="H41" s="3">
-        <v>223400</v>
+        <v>262900</v>
       </c>
       <c r="I41" s="3">
-        <v>226500</v>
+        <v>232400</v>
       </c>
       <c r="J41" s="3">
+        <v>235600</v>
+      </c>
+      <c r="K41" s="3">
         <v>103900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>98400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>117600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>121900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1863,283 +1953,307 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3">
         <v>1500</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>86000</v>
+        <v>121500</v>
       </c>
       <c r="E43" s="3">
-        <v>68800</v>
+        <v>89500</v>
       </c>
       <c r="F43" s="3">
-        <v>63600</v>
+        <v>88100</v>
       </c>
       <c r="G43" s="3">
-        <v>61900</v>
+        <v>66100</v>
       </c>
       <c r="H43" s="3">
-        <v>60600</v>
+        <v>64400</v>
       </c>
       <c r="I43" s="3">
-        <v>54700</v>
+        <v>63000</v>
       </c>
       <c r="J43" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K43" s="3">
         <v>57800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>36300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>51200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>40200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>68600</v>
+        <v>84400</v>
       </c>
       <c r="E44" s="3">
-        <v>69400</v>
+        <v>71300</v>
       </c>
       <c r="F44" s="3">
-        <v>54700</v>
+        <v>72200</v>
       </c>
       <c r="G44" s="3">
-        <v>51800</v>
+        <v>57000</v>
       </c>
       <c r="H44" s="3">
-        <v>48500</v>
+        <v>53900</v>
       </c>
       <c r="I44" s="3">
-        <v>47100</v>
+        <v>50500</v>
       </c>
       <c r="J44" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K44" s="3">
         <v>42900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>38000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>38600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>29800</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22200</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
+        <v>23100</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>307400</v>
+        <v>316900</v>
       </c>
       <c r="E46" s="3">
-        <v>252200</v>
+        <v>319900</v>
       </c>
       <c r="F46" s="3">
-        <v>381200</v>
+        <v>278900</v>
       </c>
       <c r="G46" s="3">
-        <v>366700</v>
+        <v>396700</v>
       </c>
       <c r="H46" s="3">
-        <v>332500</v>
+        <v>381500</v>
       </c>
       <c r="I46" s="3">
-        <v>330800</v>
+        <v>345900</v>
       </c>
       <c r="J46" s="3">
+        <v>344200</v>
+      </c>
+      <c r="K46" s="3">
         <v>204900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>172800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>208400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>196500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E47" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H47" s="3">
         <v>4200</v>
       </c>
-      <c r="F47" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>4100</v>
-      </c>
-      <c r="H47" s="3">
-        <v>8300</v>
-      </c>
       <c r="I47" s="3">
-        <v>3700</v>
+        <v>8700</v>
       </c>
       <c r="J47" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>197600</v>
+        <v>198200</v>
       </c>
       <c r="E48" s="3">
-        <v>192800</v>
+        <v>205600</v>
       </c>
       <c r="F48" s="3">
-        <v>190800</v>
+        <v>200600</v>
       </c>
       <c r="G48" s="3">
-        <v>187800</v>
+        <v>198500</v>
       </c>
       <c r="H48" s="3">
-        <v>196400</v>
+        <v>195400</v>
       </c>
       <c r="I48" s="3">
-        <v>129000</v>
+        <v>204400</v>
       </c>
       <c r="J48" s="3">
+        <v>134300</v>
+      </c>
+      <c r="K48" s="3">
         <v>44200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>38700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>34100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>746400</v>
+        <v>777000</v>
       </c>
       <c r="E49" s="3">
-        <v>714300</v>
+        <v>776600</v>
       </c>
       <c r="F49" s="3">
-        <v>400900</v>
+        <v>741600</v>
       </c>
       <c r="G49" s="3">
-        <v>404000</v>
+        <v>417200</v>
       </c>
       <c r="H49" s="3">
-        <v>414000</v>
+        <v>420400</v>
       </c>
       <c r="I49" s="3">
-        <v>269000</v>
+        <v>430800</v>
       </c>
       <c r="J49" s="3">
+        <v>279900</v>
+      </c>
+      <c r="K49" s="3">
         <v>271400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>272800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>287400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>249000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2331,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14300</v>
+        <v>15000</v>
       </c>
       <c r="E52" s="3">
-        <v>12400</v>
+        <v>14900</v>
       </c>
       <c r="F52" s="3">
-        <v>6100</v>
+        <v>16400</v>
       </c>
       <c r="G52" s="3">
-        <v>18600</v>
+        <v>6300</v>
       </c>
       <c r="H52" s="3">
-        <v>16300</v>
+        <v>19400</v>
       </c>
       <c r="I52" s="3">
-        <v>9700</v>
+        <v>17000</v>
       </c>
       <c r="J52" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K52" s="3">
         <v>11200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1269700</v>
+        <v>1311000</v>
       </c>
       <c r="E54" s="3">
-        <v>1175900</v>
+        <v>1321100</v>
       </c>
       <c r="F54" s="3">
-        <v>983200</v>
+        <v>1241900</v>
       </c>
       <c r="G54" s="3">
-        <v>981200</v>
+        <v>1023000</v>
       </c>
       <c r="H54" s="3">
-        <v>967600</v>
+        <v>1020900</v>
       </c>
       <c r="I54" s="3">
-        <v>742200</v>
+        <v>1006800</v>
       </c>
       <c r="J54" s="3">
+        <v>772300</v>
+      </c>
+      <c r="K54" s="3">
         <v>532700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>494500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>540700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>489200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,69 +2490,73 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>67600</v>
+        <v>84100</v>
       </c>
       <c r="E57" s="3">
-        <v>64600</v>
+        <v>70400</v>
       </c>
       <c r="F57" s="3">
-        <v>68100</v>
+        <v>85600</v>
       </c>
       <c r="G57" s="3">
-        <v>55500</v>
+        <v>70800</v>
       </c>
       <c r="H57" s="3">
-        <v>52200</v>
+        <v>57700</v>
       </c>
       <c r="I57" s="3">
-        <v>47200</v>
+        <v>54300</v>
       </c>
       <c r="J57" s="3">
+        <v>49100</v>
+      </c>
+      <c r="K57" s="3">
         <v>49800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>59700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>35100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>159100</v>
+        <v>158900</v>
       </c>
       <c r="E58" s="3">
-        <v>153100</v>
+        <v>165500</v>
       </c>
       <c r="F58" s="3">
-        <v>9700</v>
+        <v>159300</v>
       </c>
       <c r="G58" s="3">
-        <v>8500</v>
+        <v>10100</v>
       </c>
       <c r="H58" s="3">
-        <v>135600</v>
+        <v>8800</v>
       </c>
       <c r="I58" s="3">
-        <v>128700</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>141100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>133900</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2436,107 +2570,116 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16300</v>
+        <v>7300</v>
       </c>
       <c r="E59" s="3">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="F59" s="3">
-        <v>2000</v>
+        <v>5700</v>
       </c>
       <c r="G59" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="H59" s="3">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="I59" s="3">
-        <v>1400</v>
+        <v>2600</v>
       </c>
       <c r="J59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>243000</v>
+        <v>250400</v>
       </c>
       <c r="E60" s="3">
-        <v>223200</v>
+        <v>252900</v>
       </c>
       <c r="F60" s="3">
-        <v>79800</v>
+        <v>250600</v>
       </c>
       <c r="G60" s="3">
-        <v>65700</v>
+        <v>83000</v>
       </c>
       <c r="H60" s="3">
-        <v>190300</v>
+        <v>68400</v>
       </c>
       <c r="I60" s="3">
-        <v>177300</v>
+        <v>198000</v>
       </c>
       <c r="J60" s="3">
+        <v>184500</v>
+      </c>
+      <c r="K60" s="3">
         <v>54000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>43100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>63900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>41700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>115100</v>
+        <v>118900</v>
       </c>
       <c r="E61" s="3">
-        <v>120800</v>
+        <v>119700</v>
       </c>
       <c r="F61" s="3">
-        <v>122100</v>
+        <v>125700</v>
       </c>
       <c r="G61" s="3">
-        <v>131100</v>
+        <v>127100</v>
       </c>
       <c r="H61" s="3">
-        <v>143700</v>
+        <v>136400</v>
       </c>
       <c r="I61" s="3">
-        <v>80500</v>
+        <v>149500</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>83800</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2550,46 +2693,52 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>43900</v>
+        <v>39800</v>
       </c>
       <c r="E62" s="3">
-        <v>49500</v>
+        <v>45700</v>
       </c>
       <c r="F62" s="3">
-        <v>24400</v>
+        <v>51500</v>
       </c>
       <c r="G62" s="3">
-        <v>33500</v>
+        <v>25400</v>
       </c>
       <c r="H62" s="3">
-        <v>34200</v>
+        <v>34900</v>
       </c>
       <c r="I62" s="3">
-        <v>19600</v>
+        <v>35600</v>
       </c>
       <c r="J62" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K62" s="3">
         <v>19800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>402000</v>
+        <v>409100</v>
       </c>
       <c r="E66" s="3">
-        <v>393500</v>
+        <v>418300</v>
       </c>
       <c r="F66" s="3">
-        <v>226300</v>
+        <v>427800</v>
       </c>
       <c r="G66" s="3">
-        <v>230300</v>
+        <v>235500</v>
       </c>
       <c r="H66" s="3">
-        <v>368200</v>
+        <v>239600</v>
       </c>
       <c r="I66" s="3">
-        <v>277400</v>
+        <v>383200</v>
       </c>
       <c r="J66" s="3">
+        <v>288600</v>
+      </c>
+      <c r="K66" s="3">
         <v>73800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>60000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>82300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>62000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>444800</v>
+        <v>458200</v>
       </c>
       <c r="E72" s="3">
-        <v>427200</v>
+        <v>462800</v>
       </c>
       <c r="F72" s="3">
-        <v>418300</v>
+        <v>444500</v>
       </c>
       <c r="G72" s="3">
-        <v>406500</v>
+        <v>435300</v>
       </c>
       <c r="H72" s="3">
-        <v>386700</v>
+        <v>423000</v>
       </c>
       <c r="I72" s="3">
         <v>402400</v>
       </c>
       <c r="J72" s="3">
+        <v>418600</v>
+      </c>
+      <c r="K72" s="3">
         <v>391400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>371300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>394300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>368600</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>867700</v>
+        <v>901900</v>
       </c>
       <c r="E76" s="3">
-        <v>782400</v>
+        <v>902800</v>
       </c>
       <c r="F76" s="3">
-        <v>756900</v>
+        <v>814100</v>
       </c>
       <c r="G76" s="3">
-        <v>750900</v>
+        <v>787500</v>
       </c>
       <c r="H76" s="3">
-        <v>599400</v>
+        <v>781300</v>
       </c>
       <c r="I76" s="3">
-        <v>464800</v>
+        <v>623600</v>
       </c>
       <c r="J76" s="3">
+        <v>483700</v>
+      </c>
+      <c r="K76" s="3">
         <v>458900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>434500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>458500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>427100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6900</v>
+        <v>-17700</v>
       </c>
       <c r="E81" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
-        <v>3500</v>
-      </c>
       <c r="G81" s="3">
-        <v>15900</v>
+        <v>3600</v>
       </c>
       <c r="H81" s="3">
-        <v>-16200</v>
+        <v>16500</v>
       </c>
       <c r="I81" s="3">
-        <v>31100</v>
+        <v>-16900</v>
       </c>
       <c r="J81" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K81" s="3">
         <v>20600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>32800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>39000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>43000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,46 +3431,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>30300</v>
+        <v>34100</v>
       </c>
       <c r="E83" s="3">
-        <v>25800</v>
+        <v>31500</v>
       </c>
       <c r="F83" s="3">
-        <v>23100</v>
+        <v>26800</v>
       </c>
       <c r="G83" s="3">
-        <v>19100</v>
+        <v>24100</v>
       </c>
       <c r="H83" s="3">
         <v>19900</v>
       </c>
       <c r="I83" s="3">
-        <v>15700</v>
+        <v>20700</v>
       </c>
       <c r="J83" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K83" s="3">
         <v>10100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>35500</v>
+        <v>-1400</v>
       </c>
       <c r="E89" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>30200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>47200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>42100</v>
+      </c>
+      <c r="I89" s="3">
         <v>29000</v>
       </c>
-      <c r="F89" s="3">
-        <v>45300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>40400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>27900</v>
-      </c>
-      <c r="I89" s="3">
-        <v>47200</v>
-      </c>
       <c r="J89" s="3">
+        <v>49100</v>
+      </c>
+      <c r="K89" s="3">
         <v>40300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>43100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>39600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>43800</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,46 +3735,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5400</v>
+        <v>-25800</v>
       </c>
       <c r="E91" s="3">
-        <v>-17300</v>
+        <v>-15500</v>
       </c>
       <c r="F91" s="3">
-        <v>-23900</v>
+        <v>-27100</v>
       </c>
       <c r="G91" s="3">
-        <v>-13700</v>
+        <v>-32100</v>
       </c>
       <c r="H91" s="3">
-        <v>-5700</v>
+        <v>-25100</v>
       </c>
       <c r="I91" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-9400</v>
       </c>
-      <c r="J91" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16600</v>
+        <v>-13000</v>
       </c>
       <c r="E94" s="3">
-        <v>-319500</v>
+        <v>-17200</v>
       </c>
       <c r="F94" s="3">
-        <v>-27400</v>
+        <v>-332400</v>
       </c>
       <c r="G94" s="3">
-        <v>-27200</v>
+        <v>-28500</v>
       </c>
       <c r="H94" s="3">
-        <v>-154200</v>
+        <v>-28300</v>
       </c>
       <c r="I94" s="3">
-        <v>-22400</v>
+        <v>-160400</v>
       </c>
       <c r="J94" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-27300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-31900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-34700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14800</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,8 +3916,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3701,28 +3935,31 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-8700</v>
       </c>
-      <c r="I96" s="3">
-        <v>-21100</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-20800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-9100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-20100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,118 +4078,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8700</v>
+        <v>-10200</v>
       </c>
       <c r="E100" s="3">
-        <v>140100</v>
+        <v>-9100</v>
       </c>
       <c r="F100" s="3">
-        <v>-7300</v>
+        <v>145800</v>
       </c>
       <c r="G100" s="3">
-        <v>17900</v>
+        <v>-7600</v>
       </c>
       <c r="H100" s="3">
-        <v>120400</v>
+        <v>18600</v>
       </c>
       <c r="I100" s="3">
-        <v>99700</v>
+        <v>125300</v>
       </c>
       <c r="J100" s="3">
+        <v>103700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-8900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-20300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7000</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F101" s="3">
         <v>1600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H101" s="3">
-        <v>2700</v>
+        <v>-1900</v>
       </c>
       <c r="I101" s="3">
-        <v>-1900</v>
+        <v>2900</v>
       </c>
       <c r="J101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>17300</v>
+        <v>-25600</v>
       </c>
       <c r="E102" s="3">
-        <v>-148800</v>
+        <v>18000</v>
       </c>
       <c r="F102" s="3">
-        <v>9500</v>
+        <v>-154900</v>
       </c>
       <c r="G102" s="3">
-        <v>29300</v>
+        <v>9900</v>
       </c>
       <c r="H102" s="3">
-        <v>-3100</v>
+        <v>30500</v>
       </c>
       <c r="I102" s="3">
-        <v>122600</v>
+        <v>-3200</v>
       </c>
       <c r="J102" s="3">
+        <v>127600</v>
+      </c>
+      <c r="K102" s="3">
         <v>4700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9100</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABCM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABCM_QTR_FIN.xlsx
@@ -736,25 +736,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>219000</v>
+        <v>223700</v>
       </c>
       <c r="E8" s="3">
-        <v>229800</v>
+        <v>234700</v>
       </c>
       <c r="F8" s="3">
-        <v>205000</v>
+        <v>209400</v>
       </c>
       <c r="G8" s="3">
-        <v>186400</v>
+        <v>190300</v>
       </c>
       <c r="H8" s="3">
-        <v>183000</v>
+        <v>186900</v>
       </c>
       <c r="I8" s="3">
-        <v>151100</v>
+        <v>154400</v>
       </c>
       <c r="J8" s="3">
-        <v>171500</v>
+        <v>175100</v>
       </c>
       <c r="K8" s="3">
         <v>161200</v>
@@ -777,25 +777,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>53700</v>
+        <v>54900</v>
       </c>
       <c r="E9" s="3">
-        <v>59400</v>
+        <v>60700</v>
       </c>
       <c r="F9" s="3">
-        <v>59300</v>
+        <v>60600</v>
       </c>
       <c r="G9" s="3">
-        <v>53400</v>
+        <v>54500</v>
       </c>
       <c r="H9" s="3">
-        <v>53200</v>
+        <v>54400</v>
       </c>
       <c r="I9" s="3">
-        <v>47000</v>
+        <v>48000</v>
       </c>
       <c r="J9" s="3">
-        <v>52000</v>
+        <v>53100</v>
       </c>
       <c r="K9" s="3">
         <v>47200</v>
@@ -818,25 +818,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>165300</v>
+        <v>168800</v>
       </c>
       <c r="E10" s="3">
-        <v>170400</v>
+        <v>174000</v>
       </c>
       <c r="F10" s="3">
-        <v>145700</v>
+        <v>148800</v>
       </c>
       <c r="G10" s="3">
-        <v>133000</v>
+        <v>135900</v>
       </c>
       <c r="H10" s="3">
-        <v>129800</v>
+        <v>132600</v>
       </c>
       <c r="I10" s="3">
-        <v>104100</v>
+        <v>106300</v>
       </c>
       <c r="J10" s="3">
-        <v>119500</v>
+        <v>122000</v>
       </c>
       <c r="K10" s="3">
         <v>114000</v>
@@ -876,25 +876,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="E12" s="3">
-        <v>14300</v>
+        <v>14600</v>
       </c>
       <c r="F12" s="3">
-        <v>14600</v>
+        <v>15000</v>
       </c>
       <c r="G12" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="H12" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="I12" s="3">
-        <v>13200</v>
+        <v>13400</v>
       </c>
       <c r="J12" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="K12" s="3">
         <v>5700</v>
@@ -958,25 +958,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>39600</v>
+        <v>40400</v>
       </c>
       <c r="E14" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="F14" s="3">
-        <v>20300</v>
+        <v>20800</v>
       </c>
       <c r="G14" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="H14" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I14" s="3">
-        <v>27300</v>
+        <v>27900</v>
       </c>
       <c r="J14" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="K14" s="3">
         <v>20200</v>
@@ -999,25 +999,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="E15" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="F15" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="G15" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="H15" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="I15" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="J15" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="K15" s="3">
         <v>3800</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>243100</v>
+        <v>248300</v>
       </c>
       <c r="E17" s="3">
-        <v>218300</v>
+        <v>222900</v>
       </c>
       <c r="F17" s="3">
-        <v>209700</v>
+        <v>214200</v>
       </c>
       <c r="G17" s="3">
-        <v>173600</v>
+        <v>177300</v>
       </c>
       <c r="H17" s="3">
-        <v>160800</v>
+        <v>164200</v>
       </c>
       <c r="I17" s="3">
-        <v>171100</v>
+        <v>174800</v>
       </c>
       <c r="J17" s="3">
-        <v>138500</v>
+        <v>141400</v>
       </c>
       <c r="K17" s="3">
         <v>134200</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-24100</v>
+        <v>-24600</v>
       </c>
       <c r="E18" s="3">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="F18" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="G18" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="H18" s="3">
-        <v>22200</v>
+        <v>22700</v>
       </c>
       <c r="I18" s="3">
-        <v>-20000</v>
+        <v>-20400</v>
       </c>
       <c r="J18" s="3">
-        <v>33000</v>
+        <v>33700</v>
       </c>
       <c r="K18" s="3">
         <v>27100</v>
@@ -1153,7 +1153,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="E20" s="3">
         <v>-2400</v>
@@ -1162,10 +1162,10 @@
         <v>-1600</v>
       </c>
       <c r="G20" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H20" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I20" s="3">
         <v>-1400</v>
@@ -1194,25 +1194,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="E21" s="3">
-        <v>40700</v>
+        <v>41600</v>
       </c>
       <c r="F21" s="3">
-        <v>20500</v>
+        <v>20900</v>
       </c>
       <c r="G21" s="3">
-        <v>37100</v>
+        <v>37900</v>
       </c>
       <c r="H21" s="3">
-        <v>42300</v>
+        <v>43200</v>
       </c>
       <c r="I21" s="3">
         <v>-600</v>
       </c>
       <c r="J21" s="3">
-        <v>50000</v>
+        <v>51100</v>
       </c>
       <c r="K21" s="3">
         <v>37200</v>
@@ -1276,25 +1276,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-28500</v>
+        <v>-29100</v>
       </c>
       <c r="E23" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="F23" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="G23" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="H23" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="I23" s="3">
-        <v>-21800</v>
+        <v>-22300</v>
       </c>
       <c r="J23" s="3">
-        <v>32300</v>
+        <v>32900</v>
       </c>
       <c r="K23" s="3">
         <v>27100</v>
@@ -1317,22 +1317,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-10800</v>
+        <v>-11000</v>
       </c>
       <c r="E24" s="3">
         <v>2000</v>
       </c>
       <c r="F24" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="G24" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="H24" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I24" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="J24" s="3">
         <v>-100</v>
@@ -1399,25 +1399,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-17700</v>
+        <v>-18100</v>
       </c>
       <c r="E26" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="F26" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G26" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H26" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="I26" s="3">
-        <v>-16900</v>
+        <v>-17200</v>
       </c>
       <c r="J26" s="3">
-        <v>32400</v>
+        <v>33100</v>
       </c>
       <c r="K26" s="3">
         <v>20900</v>
@@ -1440,25 +1440,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-17700</v>
+        <v>-18100</v>
       </c>
       <c r="E27" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="F27" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G27" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H27" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="I27" s="3">
-        <v>-16900</v>
+        <v>-17200</v>
       </c>
       <c r="J27" s="3">
-        <v>32400</v>
+        <v>33100</v>
       </c>
       <c r="K27" s="3">
         <v>20900</v>
@@ -1645,7 +1645,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="E32" s="3">
         <v>2400</v>
@@ -1654,10 +1654,10 @@
         <v>1600</v>
       </c>
       <c r="G32" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H32" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I32" s="3">
         <v>1400</v>
@@ -1686,25 +1686,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-17700</v>
+        <v>-18100</v>
       </c>
       <c r="E33" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="F33" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G33" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H33" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="I33" s="3">
-        <v>-16900</v>
+        <v>-17200</v>
       </c>
       <c r="J33" s="3">
-        <v>32400</v>
+        <v>33100</v>
       </c>
       <c r="K33" s="3">
         <v>20600</v>
@@ -1768,25 +1768,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-17700</v>
+        <v>-18100</v>
       </c>
       <c r="E35" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="F35" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G35" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H35" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="I35" s="3">
-        <v>-16900</v>
+        <v>-17200</v>
       </c>
       <c r="J35" s="3">
-        <v>32400</v>
+        <v>33100</v>
       </c>
       <c r="K35" s="3">
         <v>20600</v>
@@ -1889,25 +1889,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>110400</v>
+        <v>112800</v>
       </c>
       <c r="E41" s="3">
-        <v>136000</v>
+        <v>138900</v>
       </c>
       <c r="F41" s="3">
-        <v>118000</v>
+        <v>120500</v>
       </c>
       <c r="G41" s="3">
-        <v>272900</v>
+        <v>278700</v>
       </c>
       <c r="H41" s="3">
-        <v>262900</v>
+        <v>268500</v>
       </c>
       <c r="I41" s="3">
-        <v>232400</v>
+        <v>237400</v>
       </c>
       <c r="J41" s="3">
-        <v>235600</v>
+        <v>240700</v>
       </c>
       <c r="K41" s="3">
         <v>103900</v>
@@ -1971,25 +1971,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>121500</v>
+        <v>124100</v>
       </c>
       <c r="E43" s="3">
-        <v>89500</v>
+        <v>91400</v>
       </c>
       <c r="F43" s="3">
-        <v>88100</v>
+        <v>90000</v>
       </c>
       <c r="G43" s="3">
-        <v>66100</v>
+        <v>67500</v>
       </c>
       <c r="H43" s="3">
+        <v>65800</v>
+      </c>
+      <c r="I43" s="3">
         <v>64400</v>
       </c>
-      <c r="I43" s="3">
-        <v>63000</v>
-      </c>
       <c r="J43" s="3">
-        <v>57000</v>
+        <v>58200</v>
       </c>
       <c r="K43" s="3">
         <v>57800</v>
@@ -2012,25 +2012,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>84400</v>
+        <v>86200</v>
       </c>
       <c r="E44" s="3">
-        <v>71300</v>
+        <v>72900</v>
       </c>
       <c r="F44" s="3">
-        <v>72200</v>
+        <v>73800</v>
       </c>
       <c r="G44" s="3">
-        <v>57000</v>
+        <v>58200</v>
       </c>
       <c r="H44" s="3">
-        <v>53900</v>
+        <v>55000</v>
       </c>
       <c r="I44" s="3">
-        <v>50500</v>
+        <v>51600</v>
       </c>
       <c r="J44" s="3">
-        <v>49000</v>
+        <v>50100</v>
       </c>
       <c r="K44" s="3">
         <v>42900</v>
@@ -2056,13 +2056,13 @@
         <v>600</v>
       </c>
       <c r="E45" s="3">
-        <v>23100</v>
+        <v>23600</v>
       </c>
       <c r="F45" s="3">
         <v>600</v>
       </c>
       <c r="G45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H45" s="3">
         <v>400</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
@@ -2094,25 +2094,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>316900</v>
+        <v>323700</v>
       </c>
       <c r="E46" s="3">
-        <v>319900</v>
+        <v>326700</v>
       </c>
       <c r="F46" s="3">
-        <v>278900</v>
+        <v>284900</v>
       </c>
       <c r="G46" s="3">
-        <v>396700</v>
+        <v>405200</v>
       </c>
       <c r="H46" s="3">
-        <v>381500</v>
+        <v>389700</v>
       </c>
       <c r="I46" s="3">
-        <v>345900</v>
+        <v>353300</v>
       </c>
       <c r="J46" s="3">
-        <v>344200</v>
+        <v>351500</v>
       </c>
       <c r="K46" s="3">
         <v>204900</v>
@@ -2135,25 +2135,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E47" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="F47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H47" s="3">
         <v>4300</v>
       </c>
-      <c r="G47" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H47" s="3">
-        <v>4200</v>
-      </c>
       <c r="I47" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="J47" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K47" s="3">
         <v>1000</v>
@@ -2176,25 +2176,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>198200</v>
+        <v>202400</v>
       </c>
       <c r="E48" s="3">
-        <v>205600</v>
+        <v>210000</v>
       </c>
       <c r="F48" s="3">
-        <v>200600</v>
+        <v>204900</v>
       </c>
       <c r="G48" s="3">
-        <v>198500</v>
+        <v>202800</v>
       </c>
       <c r="H48" s="3">
-        <v>195400</v>
+        <v>199600</v>
       </c>
       <c r="I48" s="3">
-        <v>204400</v>
+        <v>208700</v>
       </c>
       <c r="J48" s="3">
-        <v>134300</v>
+        <v>137100</v>
       </c>
       <c r="K48" s="3">
         <v>44200</v>
@@ -2217,25 +2217,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>777000</v>
+        <v>793600</v>
       </c>
       <c r="E49" s="3">
-        <v>776600</v>
+        <v>793200</v>
       </c>
       <c r="F49" s="3">
-        <v>741600</v>
+        <v>757500</v>
       </c>
       <c r="G49" s="3">
-        <v>417200</v>
+        <v>426100</v>
       </c>
       <c r="H49" s="3">
-        <v>420400</v>
+        <v>429400</v>
       </c>
       <c r="I49" s="3">
-        <v>430800</v>
+        <v>440000</v>
       </c>
       <c r="J49" s="3">
-        <v>279900</v>
+        <v>285900</v>
       </c>
       <c r="K49" s="3">
         <v>271400</v>
@@ -2340,25 +2340,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="E52" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="F52" s="3">
-        <v>16400</v>
+        <v>16700</v>
       </c>
       <c r="G52" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="H52" s="3">
-        <v>19400</v>
+        <v>19800</v>
       </c>
       <c r="I52" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="J52" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="K52" s="3">
         <v>11200</v>
@@ -2422,25 +2422,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1311000</v>
+        <v>1339000</v>
       </c>
       <c r="E54" s="3">
-        <v>1321100</v>
+        <v>1349300</v>
       </c>
       <c r="F54" s="3">
-        <v>1241900</v>
+        <v>1268400</v>
       </c>
       <c r="G54" s="3">
-        <v>1023000</v>
+        <v>1044900</v>
       </c>
       <c r="H54" s="3">
-        <v>1020900</v>
+        <v>1042700</v>
       </c>
       <c r="I54" s="3">
-        <v>1006800</v>
+        <v>1028300</v>
       </c>
       <c r="J54" s="3">
-        <v>772300</v>
+        <v>788800</v>
       </c>
       <c r="K54" s="3">
         <v>532700</v>
@@ -2497,25 +2497,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>84100</v>
+        <v>85900</v>
       </c>
       <c r="E57" s="3">
-        <v>70400</v>
+        <v>71900</v>
       </c>
       <c r="F57" s="3">
-        <v>85600</v>
+        <v>87400</v>
       </c>
       <c r="G57" s="3">
-        <v>70800</v>
+        <v>72400</v>
       </c>
       <c r="H57" s="3">
-        <v>57700</v>
+        <v>58900</v>
       </c>
       <c r="I57" s="3">
-        <v>54300</v>
+        <v>55500</v>
       </c>
       <c r="J57" s="3">
-        <v>49100</v>
+        <v>50200</v>
       </c>
       <c r="K57" s="3">
         <v>49800</v>
@@ -2538,25 +2538,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>158900</v>
+        <v>162300</v>
       </c>
       <c r="E58" s="3">
-        <v>165500</v>
+        <v>169100</v>
       </c>
       <c r="F58" s="3">
-        <v>159300</v>
+        <v>162700</v>
       </c>
       <c r="G58" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="H58" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="I58" s="3">
-        <v>141100</v>
+        <v>144100</v>
       </c>
       <c r="J58" s="3">
-        <v>133900</v>
+        <v>136700</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2579,22 +2579,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="E59" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="F59" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G59" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H59" s="3">
         <v>1900</v>
       </c>
       <c r="I59" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J59" s="3">
         <v>1500</v>
@@ -2620,25 +2620,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>250400</v>
+        <v>255700</v>
       </c>
       <c r="E60" s="3">
-        <v>252900</v>
+        <v>258300</v>
       </c>
       <c r="F60" s="3">
-        <v>250600</v>
+        <v>256000</v>
       </c>
       <c r="G60" s="3">
-        <v>83000</v>
+        <v>84800</v>
       </c>
       <c r="H60" s="3">
-        <v>68400</v>
+        <v>69800</v>
       </c>
       <c r="I60" s="3">
-        <v>198000</v>
+        <v>202300</v>
       </c>
       <c r="J60" s="3">
-        <v>184500</v>
+        <v>188400</v>
       </c>
       <c r="K60" s="3">
         <v>54000</v>
@@ -2661,25 +2661,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>118900</v>
+        <v>121400</v>
       </c>
       <c r="E61" s="3">
-        <v>119700</v>
+        <v>122300</v>
       </c>
       <c r="F61" s="3">
-        <v>125700</v>
+        <v>128400</v>
       </c>
       <c r="G61" s="3">
-        <v>127100</v>
+        <v>129800</v>
       </c>
       <c r="H61" s="3">
-        <v>136400</v>
+        <v>139300</v>
       </c>
       <c r="I61" s="3">
-        <v>149500</v>
+        <v>152700</v>
       </c>
       <c r="J61" s="3">
-        <v>83800</v>
+        <v>85500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2702,25 +2702,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>39800</v>
+        <v>40700</v>
       </c>
       <c r="E62" s="3">
-        <v>45700</v>
+        <v>46600</v>
       </c>
       <c r="F62" s="3">
-        <v>51500</v>
+        <v>52600</v>
       </c>
       <c r="G62" s="3">
-        <v>25400</v>
+        <v>26000</v>
       </c>
       <c r="H62" s="3">
-        <v>34900</v>
+        <v>35600</v>
       </c>
       <c r="I62" s="3">
-        <v>35600</v>
+        <v>36400</v>
       </c>
       <c r="J62" s="3">
-        <v>20300</v>
+        <v>20800</v>
       </c>
       <c r="K62" s="3">
         <v>19800</v>
@@ -2866,25 +2866,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>409100</v>
+        <v>417800</v>
       </c>
       <c r="E66" s="3">
-        <v>418300</v>
+        <v>427200</v>
       </c>
       <c r="F66" s="3">
-        <v>427800</v>
+        <v>437000</v>
       </c>
       <c r="G66" s="3">
-        <v>235500</v>
+        <v>240500</v>
       </c>
       <c r="H66" s="3">
-        <v>239600</v>
+        <v>244700</v>
       </c>
       <c r="I66" s="3">
-        <v>383200</v>
+        <v>391300</v>
       </c>
       <c r="J66" s="3">
-        <v>288600</v>
+        <v>294800</v>
       </c>
       <c r="K66" s="3">
         <v>73800</v>
@@ -3088,25 +3088,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>458200</v>
+        <v>468000</v>
       </c>
       <c r="E72" s="3">
-        <v>462800</v>
+        <v>472700</v>
       </c>
       <c r="F72" s="3">
-        <v>444500</v>
+        <v>453900</v>
       </c>
       <c r="G72" s="3">
-        <v>435300</v>
+        <v>444600</v>
       </c>
       <c r="H72" s="3">
-        <v>423000</v>
+        <v>432000</v>
       </c>
       <c r="I72" s="3">
-        <v>402400</v>
+        <v>411000</v>
       </c>
       <c r="J72" s="3">
-        <v>418600</v>
+        <v>427600</v>
       </c>
       <c r="K72" s="3">
         <v>391400</v>
@@ -3252,25 +3252,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>901900</v>
+        <v>921200</v>
       </c>
       <c r="E76" s="3">
-        <v>902800</v>
+        <v>922100</v>
       </c>
       <c r="F76" s="3">
-        <v>814100</v>
+        <v>831500</v>
       </c>
       <c r="G76" s="3">
-        <v>787500</v>
+        <v>804400</v>
       </c>
       <c r="H76" s="3">
-        <v>781300</v>
+        <v>798000</v>
       </c>
       <c r="I76" s="3">
-        <v>623600</v>
+        <v>636900</v>
       </c>
       <c r="J76" s="3">
-        <v>483700</v>
+        <v>494000</v>
       </c>
       <c r="K76" s="3">
         <v>458900</v>
@@ -3380,25 +3380,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-17700</v>
+        <v>-18100</v>
       </c>
       <c r="E81" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="F81" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G81" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H81" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="I81" s="3">
-        <v>-16900</v>
+        <v>-17200</v>
       </c>
       <c r="J81" s="3">
-        <v>32400</v>
+        <v>33100</v>
       </c>
       <c r="K81" s="3">
         <v>20600</v>
@@ -3438,25 +3438,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>34100</v>
+        <v>34900</v>
       </c>
       <c r="E83" s="3">
-        <v>31500</v>
+        <v>32200</v>
       </c>
       <c r="F83" s="3">
-        <v>26800</v>
+        <v>27400</v>
       </c>
       <c r="G83" s="3">
-        <v>24100</v>
+        <v>24600</v>
       </c>
       <c r="H83" s="3">
-        <v>19900</v>
+        <v>20300</v>
       </c>
       <c r="I83" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="J83" s="3">
-        <v>16400</v>
+        <v>16700</v>
       </c>
       <c r="K83" s="3">
         <v>10100</v>
@@ -3687,22 +3687,22 @@
         <v>-1400</v>
       </c>
       <c r="E89" s="3">
-        <v>37000</v>
+        <v>37800</v>
       </c>
       <c r="F89" s="3">
-        <v>30200</v>
+        <v>30800</v>
       </c>
       <c r="G89" s="3">
-        <v>47200</v>
+        <v>48200</v>
       </c>
       <c r="H89" s="3">
-        <v>42100</v>
+        <v>43000</v>
       </c>
       <c r="I89" s="3">
-        <v>29000</v>
+        <v>29700</v>
       </c>
       <c r="J89" s="3">
-        <v>49100</v>
+        <v>50200</v>
       </c>
       <c r="K89" s="3">
         <v>40300</v>
@@ -3865,25 +3865,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13000</v>
+        <v>-13300</v>
       </c>
       <c r="E94" s="3">
-        <v>-17200</v>
+        <v>-17600</v>
       </c>
       <c r="F94" s="3">
-        <v>-332400</v>
+        <v>-339500</v>
       </c>
       <c r="G94" s="3">
-        <v>-28500</v>
+        <v>-29100</v>
       </c>
       <c r="H94" s="3">
-        <v>-28300</v>
+        <v>-28900</v>
       </c>
       <c r="I94" s="3">
-        <v>-160400</v>
+        <v>-163900</v>
       </c>
       <c r="J94" s="3">
-        <v>-23300</v>
+        <v>-23800</v>
       </c>
       <c r="K94" s="3">
         <v>-27300</v>
@@ -3938,10 +3938,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-9100</v>
+        <v>-9300</v>
       </c>
       <c r="J96" s="3">
-        <v>-22000</v>
+        <v>-22400</v>
       </c>
       <c r="K96" s="3">
         <v>-8700</v>
@@ -4087,25 +4087,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10200</v>
+        <v>-10400</v>
       </c>
       <c r="E100" s="3">
-        <v>-9100</v>
+        <v>-9300</v>
       </c>
       <c r="F100" s="3">
-        <v>145800</v>
+        <v>148900</v>
       </c>
       <c r="G100" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="H100" s="3">
-        <v>18600</v>
+        <v>19000</v>
       </c>
       <c r="I100" s="3">
-        <v>125300</v>
+        <v>128000</v>
       </c>
       <c r="J100" s="3">
-        <v>103700</v>
+        <v>105900</v>
       </c>
       <c r="K100" s="3">
         <v>-8900</v>
@@ -4131,7 +4131,7 @@
         <v>-1000</v>
       </c>
       <c r="E101" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="F101" s="3">
         <v>1600</v>
@@ -4169,25 +4169,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-25600</v>
+        <v>-26100</v>
       </c>
       <c r="E102" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="F102" s="3">
-        <v>-154900</v>
+        <v>-158200</v>
       </c>
       <c r="G102" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="H102" s="3">
-        <v>30500</v>
+        <v>31200</v>
       </c>
       <c r="I102" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J102" s="3">
-        <v>127600</v>
+        <v>130300</v>
       </c>
       <c r="K102" s="3">
         <v>4700</v>

--- a/AAII_Financials/Quarterly/ABCM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABCM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>ABCM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>223700</v>
+        <v>252100</v>
       </c>
       <c r="E8" s="3">
-        <v>234700</v>
+        <v>219000</v>
       </c>
       <c r="F8" s="3">
-        <v>209400</v>
+        <v>229800</v>
       </c>
       <c r="G8" s="3">
-        <v>190300</v>
+        <v>204900</v>
       </c>
       <c r="H8" s="3">
-        <v>186900</v>
+        <v>186300</v>
       </c>
       <c r="I8" s="3">
-        <v>154400</v>
+        <v>183000</v>
       </c>
       <c r="J8" s="3">
+        <v>151100</v>
+      </c>
+      <c r="K8" s="3">
         <v>175100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>161200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>147500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>157300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>149700</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>54900</v>
+        <v>59900</v>
       </c>
       <c r="E9" s="3">
-        <v>60700</v>
+        <v>53700</v>
       </c>
       <c r="F9" s="3">
-        <v>60600</v>
+        <v>59400</v>
       </c>
       <c r="G9" s="3">
-        <v>54500</v>
+        <v>59300</v>
       </c>
       <c r="H9" s="3">
-        <v>54400</v>
+        <v>53300</v>
       </c>
       <c r="I9" s="3">
-        <v>48000</v>
+        <v>53200</v>
       </c>
       <c r="J9" s="3">
+        <v>47000</v>
+      </c>
+      <c r="K9" s="3">
         <v>53100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>47200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>43900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>47200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>45300</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>168800</v>
+        <v>192200</v>
       </c>
       <c r="E10" s="3">
-        <v>174000</v>
+        <v>165200</v>
       </c>
       <c r="F10" s="3">
-        <v>148800</v>
+        <v>170300</v>
       </c>
       <c r="G10" s="3">
-        <v>135900</v>
+        <v>145600</v>
       </c>
       <c r="H10" s="3">
-        <v>132600</v>
+        <v>133000</v>
       </c>
       <c r="I10" s="3">
-        <v>106300</v>
+        <v>129800</v>
       </c>
       <c r="J10" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K10" s="3">
         <v>122000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>114000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>103600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>110200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>104500</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -870,49 +883,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>14800</v>
+        <v>15400</v>
       </c>
       <c r="E12" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>14300</v>
+      </c>
+      <c r="G12" s="3">
         <v>14600</v>
       </c>
-      <c r="F12" s="3">
-        <v>15000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>10300</v>
-      </c>
       <c r="H12" s="3">
-        <v>13300</v>
+        <v>10000</v>
       </c>
       <c r="I12" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
       <c r="J12" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K12" s="3">
         <v>8600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13700</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,90 +969,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>40400</v>
+        <v>11300</v>
       </c>
       <c r="E14" s="3">
-        <v>10900</v>
+        <v>39600</v>
       </c>
       <c r="F14" s="3">
-        <v>20800</v>
+        <v>10700</v>
       </c>
       <c r="G14" s="3">
-        <v>6600</v>
+        <v>20300</v>
       </c>
       <c r="H14" s="3">
-        <v>5100</v>
+        <v>6500</v>
       </c>
       <c r="I14" s="3">
-        <v>27900</v>
+        <v>5000</v>
       </c>
       <c r="J14" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K14" s="3">
         <v>4300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>20200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4800</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="E15" s="3">
-        <v>11400</v>
+        <v>9800</v>
       </c>
       <c r="F15" s="3">
+        <v>11200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J15" s="3">
         <v>6500</v>
       </c>
-      <c r="G15" s="3">
-        <v>5400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>9300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>6600</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3900</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>248300</v>
+        <v>217500</v>
       </c>
       <c r="E17" s="3">
-        <v>222900</v>
+        <v>243000</v>
       </c>
       <c r="F17" s="3">
-        <v>214200</v>
+        <v>218200</v>
       </c>
       <c r="G17" s="3">
-        <v>177300</v>
+        <v>209700</v>
       </c>
       <c r="H17" s="3">
-        <v>164200</v>
+        <v>173600</v>
       </c>
       <c r="I17" s="3">
-        <v>174800</v>
+        <v>160800</v>
       </c>
       <c r="J17" s="3">
+        <v>171100</v>
+      </c>
+      <c r="K17" s="3">
         <v>141400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>134200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>108000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>110300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>106200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-24600</v>
+        <v>34600</v>
       </c>
       <c r="E18" s="3">
-        <v>11800</v>
+        <v>-24100</v>
       </c>
       <c r="F18" s="3">
-        <v>-4800</v>
+        <v>11500</v>
       </c>
       <c r="G18" s="3">
-        <v>13100</v>
+        <v>-4700</v>
       </c>
       <c r="H18" s="3">
-        <v>22700</v>
+        <v>12800</v>
       </c>
       <c r="I18" s="3">
-        <v>-20400</v>
+        <v>22200</v>
       </c>
       <c r="J18" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="K18" s="3">
         <v>33700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>27100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>47100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>43500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,90 +1180,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4600</v>
+        <v>-5600</v>
       </c>
       <c r="E20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K20" s="3">
+        <v>600</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>400</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>300</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5700</v>
+        <v>60900</v>
       </c>
       <c r="E21" s="3">
-        <v>41600</v>
+        <v>5600</v>
       </c>
       <c r="F21" s="3">
-        <v>20900</v>
+        <v>40700</v>
       </c>
       <c r="G21" s="3">
-        <v>37900</v>
+        <v>20500</v>
       </c>
       <c r="H21" s="3">
-        <v>43200</v>
+        <v>37100</v>
       </c>
       <c r="I21" s="3">
+        <v>42300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>51100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>37200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>48000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>55900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>52000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1243,21 +1283,21 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
         <v>1600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1270,90 +1310,99 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-29100</v>
+        <v>29000</v>
       </c>
       <c r="E23" s="3">
-        <v>9400</v>
+        <v>-28500</v>
       </c>
       <c r="F23" s="3">
-        <v>-6500</v>
+        <v>9200</v>
       </c>
       <c r="G23" s="3">
-        <v>11700</v>
+        <v>-6300</v>
       </c>
       <c r="H23" s="3">
-        <v>20500</v>
+        <v>11400</v>
       </c>
       <c r="I23" s="3">
-        <v>-22300</v>
+        <v>20100</v>
       </c>
       <c r="J23" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="K23" s="3">
         <v>32900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>27100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>39900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>47300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>43700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-11000</v>
+        <v>8200</v>
       </c>
       <c r="E24" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
-        <v>-7700</v>
-      </c>
       <c r="G24" s="3">
-        <v>8000</v>
+        <v>-7600</v>
       </c>
       <c r="H24" s="3">
-        <v>3700</v>
+        <v>7800</v>
       </c>
       <c r="I24" s="3">
-        <v>-5100</v>
+        <v>3600</v>
       </c>
       <c r="J24" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>8000</v>
       </c>
       <c r="N24" s="3">
         <v>8000</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-18100</v>
+        <v>20800</v>
       </c>
       <c r="E26" s="3">
-        <v>7400</v>
+        <v>-17700</v>
       </c>
       <c r="F26" s="3">
-        <v>1300</v>
+        <v>7200</v>
       </c>
       <c r="G26" s="3">
-        <v>3700</v>
+        <v>1200</v>
       </c>
       <c r="H26" s="3">
-        <v>16900</v>
+        <v>3600</v>
       </c>
       <c r="I26" s="3">
-        <v>-17200</v>
+        <v>16500</v>
       </c>
       <c r="J26" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="K26" s="3">
         <v>33100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>32800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>39400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>35700</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-18100</v>
+        <v>20800</v>
       </c>
       <c r="E27" s="3">
-        <v>7400</v>
+        <v>-17700</v>
       </c>
       <c r="F27" s="3">
-        <v>1300</v>
+        <v>7200</v>
       </c>
       <c r="G27" s="3">
-        <v>3700</v>
+        <v>1200</v>
       </c>
       <c r="H27" s="3">
-        <v>16900</v>
+        <v>3600</v>
       </c>
       <c r="I27" s="3">
-        <v>-17200</v>
+        <v>16500</v>
       </c>
       <c r="J27" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="K27" s="3">
         <v>33100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>32800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>39400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>35700</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1536,29 +1597,32 @@
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>7300</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,90 +1706,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4600</v>
+        <v>5600</v>
       </c>
       <c r="E32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F32" s="3">
         <v>2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-18100</v>
+        <v>20800</v>
       </c>
       <c r="E33" s="3">
-        <v>7400</v>
+        <v>-17700</v>
       </c>
       <c r="F33" s="3">
-        <v>1300</v>
+        <v>7200</v>
       </c>
       <c r="G33" s="3">
-        <v>3700</v>
+        <v>1200</v>
       </c>
       <c r="H33" s="3">
-        <v>16900</v>
+        <v>3600</v>
       </c>
       <c r="I33" s="3">
-        <v>-17200</v>
+        <v>16500</v>
       </c>
       <c r="J33" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="K33" s="3">
         <v>33100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>20600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>32800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>39000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>43000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-18100</v>
+        <v>20800</v>
       </c>
       <c r="E35" s="3">
-        <v>7400</v>
+        <v>-17700</v>
       </c>
       <c r="F35" s="3">
-        <v>1300</v>
+        <v>7200</v>
       </c>
       <c r="G35" s="3">
-        <v>3700</v>
+        <v>1200</v>
       </c>
       <c r="H35" s="3">
-        <v>16900</v>
+        <v>3600</v>
       </c>
       <c r="I35" s="3">
-        <v>-17200</v>
+        <v>16500</v>
       </c>
       <c r="J35" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="K35" s="3">
         <v>33100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>20600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>32800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>39000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>43000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,49 +1969,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>112800</v>
+        <v>98000</v>
       </c>
       <c r="E41" s="3">
-        <v>138900</v>
+        <v>110400</v>
       </c>
       <c r="F41" s="3">
-        <v>120500</v>
+        <v>136000</v>
       </c>
       <c r="G41" s="3">
-        <v>278700</v>
+        <v>118000</v>
       </c>
       <c r="H41" s="3">
-        <v>268500</v>
+        <v>272800</v>
       </c>
       <c r="I41" s="3">
-        <v>237400</v>
+        <v>262900</v>
       </c>
       <c r="J41" s="3">
+        <v>232400</v>
+      </c>
+      <c r="K41" s="3">
         <v>240700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>103900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>98400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>117600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>121900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1956,304 +2046,328 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3">
         <v>1500</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>124100</v>
+        <v>134700</v>
       </c>
       <c r="E43" s="3">
-        <v>91400</v>
+        <v>121500</v>
       </c>
       <c r="F43" s="3">
-        <v>90000</v>
+        <v>89400</v>
       </c>
       <c r="G43" s="3">
-        <v>67500</v>
+        <v>88100</v>
       </c>
       <c r="H43" s="3">
-        <v>65800</v>
+        <v>66100</v>
       </c>
       <c r="I43" s="3">
         <v>64400</v>
       </c>
       <c r="J43" s="3">
+        <v>63000</v>
+      </c>
+      <c r="K43" s="3">
         <v>58200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>57800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>36300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>51200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>40200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>86200</v>
+        <v>82300</v>
       </c>
       <c r="E44" s="3">
-        <v>72900</v>
+        <v>84400</v>
       </c>
       <c r="F44" s="3">
-        <v>73800</v>
+        <v>71300</v>
       </c>
       <c r="G44" s="3">
-        <v>58200</v>
+        <v>72200</v>
       </c>
       <c r="H44" s="3">
-        <v>55000</v>
+        <v>56900</v>
       </c>
       <c r="I44" s="3">
-        <v>51600</v>
+        <v>53800</v>
       </c>
       <c r="J44" s="3">
+        <v>50500</v>
+      </c>
+      <c r="K44" s="3">
         <v>50100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>42900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>38000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>38600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>29800</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
-        <v>23600</v>
-      </c>
       <c r="F45" s="3">
+        <v>23100</v>
+      </c>
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
-        <v>800</v>
-      </c>
       <c r="H45" s="3">
+        <v>700</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>323700</v>
+        <v>317300</v>
       </c>
       <c r="E46" s="3">
-        <v>326700</v>
+        <v>316800</v>
       </c>
       <c r="F46" s="3">
-        <v>284900</v>
+        <v>319800</v>
       </c>
       <c r="G46" s="3">
-        <v>405200</v>
+        <v>278900</v>
       </c>
       <c r="H46" s="3">
-        <v>389700</v>
+        <v>396600</v>
       </c>
       <c r="I46" s="3">
-        <v>353300</v>
+        <v>381500</v>
       </c>
       <c r="J46" s="3">
+        <v>345900</v>
+      </c>
+      <c r="K46" s="3">
         <v>351500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>204900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>172800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>208400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>196500</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F47" s="3">
         <v>4100</v>
       </c>
-      <c r="E47" s="3">
-        <v>4200</v>
-      </c>
-      <c r="F47" s="3">
-        <v>4400</v>
-      </c>
       <c r="G47" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="H47" s="3">
         <v>4300</v>
       </c>
       <c r="I47" s="3">
-        <v>8900</v>
+        <v>4200</v>
       </c>
       <c r="J47" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K47" s="3">
         <v>3900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>202400</v>
+        <v>195400</v>
       </c>
       <c r="E48" s="3">
-        <v>210000</v>
+        <v>198100</v>
       </c>
       <c r="F48" s="3">
-        <v>204900</v>
+        <v>205600</v>
       </c>
       <c r="G48" s="3">
-        <v>202800</v>
+        <v>200600</v>
       </c>
       <c r="H48" s="3">
-        <v>199600</v>
+        <v>198500</v>
       </c>
       <c r="I48" s="3">
-        <v>208700</v>
+        <v>195400</v>
       </c>
       <c r="J48" s="3">
+        <v>204300</v>
+      </c>
+      <c r="K48" s="3">
         <v>137100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>44200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>38700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>32700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>34100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>793600</v>
+        <v>743100</v>
       </c>
       <c r="E49" s="3">
-        <v>793200</v>
+        <v>776900</v>
       </c>
       <c r="F49" s="3">
-        <v>757500</v>
+        <v>776500</v>
       </c>
       <c r="G49" s="3">
-        <v>426100</v>
+        <v>741500</v>
       </c>
       <c r="H49" s="3">
-        <v>429400</v>
+        <v>417100</v>
       </c>
       <c r="I49" s="3">
-        <v>440000</v>
+        <v>420300</v>
       </c>
       <c r="J49" s="3">
+        <v>430700</v>
+      </c>
+      <c r="K49" s="3">
         <v>285900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>271400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>272800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>287400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>249000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,49 +2451,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15300</v>
+        <v>14000</v>
       </c>
       <c r="E52" s="3">
-        <v>15200</v>
+        <v>15000</v>
       </c>
       <c r="F52" s="3">
-        <v>16700</v>
+        <v>14900</v>
       </c>
       <c r="G52" s="3">
-        <v>6500</v>
+        <v>16400</v>
       </c>
       <c r="H52" s="3">
-        <v>19800</v>
+        <v>6300</v>
       </c>
       <c r="I52" s="3">
-        <v>17400</v>
+        <v>19400</v>
       </c>
       <c r="J52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K52" s="3">
         <v>10300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1339000</v>
+        <v>1274200</v>
       </c>
       <c r="E54" s="3">
-        <v>1349300</v>
+        <v>1310800</v>
       </c>
       <c r="F54" s="3">
-        <v>1268400</v>
+        <v>1320900</v>
       </c>
       <c r="G54" s="3">
-        <v>1044900</v>
+        <v>1241700</v>
       </c>
       <c r="H54" s="3">
-        <v>1042700</v>
+        <v>1022900</v>
       </c>
       <c r="I54" s="3">
-        <v>1028300</v>
+        <v>1020800</v>
       </c>
       <c r="J54" s="3">
+        <v>1006600</v>
+      </c>
+      <c r="K54" s="3">
         <v>788800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>532700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>494500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>540700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>489200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,76 +2621,80 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>85900</v>
+        <v>76200</v>
       </c>
       <c r="E57" s="3">
-        <v>71900</v>
+        <v>84100</v>
       </c>
       <c r="F57" s="3">
-        <v>87400</v>
+        <v>70300</v>
       </c>
       <c r="G57" s="3">
-        <v>72400</v>
+        <v>85600</v>
       </c>
       <c r="H57" s="3">
-        <v>58900</v>
+        <v>70800</v>
       </c>
       <c r="I57" s="3">
-        <v>55500</v>
+        <v>57700</v>
       </c>
       <c r="J57" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K57" s="3">
         <v>50200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>49800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>39400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>59700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>35100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>162300</v>
+        <v>158200</v>
       </c>
       <c r="E58" s="3">
-        <v>169100</v>
+        <v>158900</v>
       </c>
       <c r="F58" s="3">
-        <v>162700</v>
+        <v>165500</v>
       </c>
       <c r="G58" s="3">
-        <v>10300</v>
+        <v>159300</v>
       </c>
       <c r="H58" s="3">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="I58" s="3">
-        <v>144100</v>
+        <v>8800</v>
       </c>
       <c r="J58" s="3">
+        <v>141100</v>
+      </c>
+      <c r="K58" s="3">
         <v>136700</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2573,117 +2707,126 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>17400</v>
+        <v>7300</v>
       </c>
       <c r="F59" s="3">
-        <v>5800</v>
+        <v>17000</v>
       </c>
       <c r="G59" s="3">
-        <v>2200</v>
+        <v>5700</v>
       </c>
       <c r="H59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
-        <v>2700</v>
-      </c>
       <c r="J59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>255700</v>
+        <v>234300</v>
       </c>
       <c r="E60" s="3">
-        <v>258300</v>
+        <v>250400</v>
       </c>
       <c r="F60" s="3">
-        <v>256000</v>
+        <v>252800</v>
       </c>
       <c r="G60" s="3">
-        <v>84800</v>
+        <v>250600</v>
       </c>
       <c r="H60" s="3">
-        <v>69800</v>
+        <v>83000</v>
       </c>
       <c r="I60" s="3">
-        <v>202300</v>
+        <v>68400</v>
       </c>
       <c r="J60" s="3">
+        <v>198000</v>
+      </c>
+      <c r="K60" s="3">
         <v>188400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>54000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>43100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>63900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>41700</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>121400</v>
+        <v>111000</v>
       </c>
       <c r="E61" s="3">
-        <v>122300</v>
+        <v>118800</v>
       </c>
       <c r="F61" s="3">
-        <v>128400</v>
+        <v>119700</v>
       </c>
       <c r="G61" s="3">
-        <v>129800</v>
+        <v>125700</v>
       </c>
       <c r="H61" s="3">
-        <v>139300</v>
+        <v>127000</v>
       </c>
       <c r="I61" s="3">
-        <v>152700</v>
+        <v>136300</v>
       </c>
       <c r="J61" s="3">
+        <v>149500</v>
+      </c>
+      <c r="K61" s="3">
         <v>85500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2696,49 +2839,55 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>40700</v>
+        <v>36600</v>
       </c>
       <c r="E62" s="3">
-        <v>46600</v>
+        <v>39800</v>
       </c>
       <c r="F62" s="3">
-        <v>52600</v>
+        <v>45700</v>
       </c>
       <c r="G62" s="3">
-        <v>26000</v>
+        <v>51500</v>
       </c>
       <c r="H62" s="3">
+        <v>25400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>34900</v>
+      </c>
+      <c r="J62" s="3">
         <v>35600</v>
       </c>
-      <c r="I62" s="3">
-        <v>36400</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>20800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>19800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>20400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>417800</v>
+        <v>382000</v>
       </c>
       <c r="E66" s="3">
-        <v>427200</v>
+        <v>409000</v>
       </c>
       <c r="F66" s="3">
-        <v>437000</v>
+        <v>418200</v>
       </c>
       <c r="G66" s="3">
-        <v>240500</v>
+        <v>427800</v>
       </c>
       <c r="H66" s="3">
-        <v>244700</v>
+        <v>235500</v>
       </c>
       <c r="I66" s="3">
-        <v>391300</v>
+        <v>239600</v>
       </c>
       <c r="J66" s="3">
+        <v>383100</v>
+      </c>
+      <c r="K66" s="3">
         <v>294800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>73800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>60000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>82300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>62000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>468000</v>
+        <v>490000</v>
       </c>
       <c r="E72" s="3">
-        <v>472700</v>
+        <v>458200</v>
       </c>
       <c r="F72" s="3">
-        <v>453900</v>
+        <v>462700</v>
       </c>
       <c r="G72" s="3">
-        <v>444600</v>
+        <v>444400</v>
       </c>
       <c r="H72" s="3">
-        <v>432000</v>
+        <v>435200</v>
       </c>
       <c r="I72" s="3">
-        <v>411000</v>
+        <v>422900</v>
       </c>
       <c r="J72" s="3">
+        <v>402300</v>
+      </c>
+      <c r="K72" s="3">
         <v>427600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>391400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>371300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>394300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>368600</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>921200</v>
+        <v>892200</v>
       </c>
       <c r="E76" s="3">
-        <v>922100</v>
+        <v>901800</v>
       </c>
       <c r="F76" s="3">
-        <v>831500</v>
+        <v>902700</v>
       </c>
       <c r="G76" s="3">
-        <v>804400</v>
+        <v>814000</v>
       </c>
       <c r="H76" s="3">
-        <v>798000</v>
+        <v>787400</v>
       </c>
       <c r="I76" s="3">
-        <v>636900</v>
+        <v>781200</v>
       </c>
       <c r="J76" s="3">
+        <v>623500</v>
+      </c>
+      <c r="K76" s="3">
         <v>494000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>458900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>434500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>458500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>427100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-18100</v>
+        <v>20800</v>
       </c>
       <c r="E81" s="3">
-        <v>7400</v>
+        <v>-17700</v>
       </c>
       <c r="F81" s="3">
-        <v>1300</v>
+        <v>7200</v>
       </c>
       <c r="G81" s="3">
-        <v>3700</v>
+        <v>1200</v>
       </c>
       <c r="H81" s="3">
-        <v>16900</v>
+        <v>3600</v>
       </c>
       <c r="I81" s="3">
-        <v>-17200</v>
+        <v>16500</v>
       </c>
       <c r="J81" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="K81" s="3">
         <v>33100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>20600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>32800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>39000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>43000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,49 +3630,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>34900</v>
+        <v>31900</v>
       </c>
       <c r="E83" s="3">
-        <v>32200</v>
+        <v>34100</v>
       </c>
       <c r="F83" s="3">
-        <v>27400</v>
+        <v>31500</v>
       </c>
       <c r="G83" s="3">
-        <v>24600</v>
+        <v>26800</v>
       </c>
       <c r="H83" s="3">
-        <v>20300</v>
+        <v>24100</v>
       </c>
       <c r="I83" s="3">
-        <v>21200</v>
+        <v>19800</v>
       </c>
       <c r="J83" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K83" s="3">
         <v>16700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
-        <v>37800</v>
-      </c>
       <c r="F89" s="3">
-        <v>30800</v>
+        <v>37000</v>
       </c>
       <c r="G89" s="3">
-        <v>48200</v>
+        <v>30100</v>
       </c>
       <c r="H89" s="3">
-        <v>43000</v>
+        <v>47100</v>
       </c>
       <c r="I89" s="3">
-        <v>29700</v>
+        <v>42100</v>
       </c>
       <c r="J89" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K89" s="3">
         <v>50200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>40300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>43100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>39600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>43800</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,49 +3956,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-32100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13300</v>
+        <v>-26100</v>
       </c>
       <c r="E94" s="3">
-        <v>-17600</v>
+        <v>-13000</v>
       </c>
       <c r="F94" s="3">
-        <v>-339500</v>
+        <v>-17200</v>
       </c>
       <c r="G94" s="3">
-        <v>-29100</v>
+        <v>-332400</v>
       </c>
       <c r="H94" s="3">
-        <v>-28900</v>
+        <v>-28500</v>
       </c>
       <c r="I94" s="3">
-        <v>-163900</v>
+        <v>-28300</v>
       </c>
       <c r="J94" s="3">
+        <v>-160400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-23800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-31900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-34700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14800</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,8 +4150,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3938,28 +4172,31 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-9300</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-22400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-20800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-9100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-20100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,127 +4324,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10400</v>
+        <v>-14600</v>
       </c>
       <c r="E100" s="3">
-        <v>-9300</v>
+        <v>-10200</v>
       </c>
       <c r="F100" s="3">
-        <v>148900</v>
+        <v>-9100</v>
       </c>
       <c r="G100" s="3">
-        <v>-7700</v>
+        <v>145800</v>
       </c>
       <c r="H100" s="3">
-        <v>19000</v>
+        <v>-7600</v>
       </c>
       <c r="I100" s="3">
-        <v>128000</v>
+        <v>18600</v>
       </c>
       <c r="J100" s="3">
+        <v>125300</v>
+      </c>
+      <c r="K100" s="3">
         <v>105900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-20300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-19000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
-        <v>7500</v>
-      </c>
       <c r="F101" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G101" s="3">
         <v>1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-900</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-26100</v>
+        <v>-12400</v>
       </c>
       <c r="E102" s="3">
-        <v>18400</v>
+        <v>-25600</v>
       </c>
       <c r="F102" s="3">
-        <v>-158200</v>
+        <v>18000</v>
       </c>
       <c r="G102" s="3">
-        <v>10100</v>
+        <v>-154800</v>
       </c>
       <c r="H102" s="3">
-        <v>31200</v>
+        <v>9900</v>
       </c>
       <c r="I102" s="3">
-        <v>-3300</v>
+        <v>30500</v>
       </c>
       <c r="J102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K102" s="3">
         <v>130300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9100</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
